--- a/VT2_Final_KPI - 2.xlsx
+++ b/VT2_Final_KPI - 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dcv-data\FAT\Common\KPI\Caring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_HUB\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="9084" tabRatio="684" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8796" tabRatio="684" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="360_Degree_Review" sheetId="69" state="hidden" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="Commited_Actual_2ndProject" sheetId="81" r:id="rId3"/>
     <sheet name="Commited_Actual_3rdProject" sheetId="84" r:id="rId4"/>
     <sheet name="Commited_Actual_4thProject" sheetId="85" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="86" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'360_Degree_Review'!$A$1:$H$74</definedName>
@@ -1149,8 +1150,42 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>diemhang.nguyen@lge.com</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>diemhang.nguyen@lge.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Apply for Type 4 project. If Type 1, devide to 3.1 and 3.2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="197">
   <si>
     <t>[VW-MIB3_AVN]</t>
   </si>
@@ -1732,6 +1767,15 @@
   </si>
   <si>
     <t>1% pass rate</t>
+  </si>
+  <si>
+    <t>BTWifi</t>
+  </si>
+  <si>
+    <t>Broadcasting</t>
+  </si>
+  <si>
+    <t>OTA</t>
   </si>
 </sst>
 </file>
@@ -2802,11 +2846,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2844,30 +2933,6 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2876,27 +2941,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8115,16 +8159,6 @@
   </sheetData>
   <autoFilter ref="A1:H74"/>
   <mergeCells count="18">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A67:A70"/>
@@ -8133,6 +8167,16 @@
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G40 G43 G45:G48 G50:G73 G75:G1048576">
     <cfRule type="cellIs" dxfId="430" priority="6" operator="equal">
@@ -8214,11 +8258,11 @@
   <dimension ref="B1:DI38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="BJ9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BC10" sqref="BC10"/>
       <selection pane="topRight" activeCell="BC10" sqref="BC10"/>
       <selection pane="bottomLeft" activeCell="BC10" sqref="BC10"/>
-      <selection pane="bottomRight" activeCell="BR10" sqref="BR10"/>
+      <selection pane="bottomRight" activeCell="AB20" sqref="AB20:AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8250,10 +8294,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="122"/>
+      <c r="C2" s="107"/>
       <c r="E2" s="21" t="s">
         <v>103</v>
       </c>
@@ -8617,341 +8661,341 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="108" t="s">
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="108" t="s">
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="108" t="s">
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="108" t="s">
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="108" t="s">
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="108" t="s">
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="108" t="s">
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="108" t="s">
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="109"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="108" t="s">
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="109"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="108" t="s">
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="93"/>
+      <c r="BG5" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="BH5" s="109"/>
-      <c r="BI5" s="109"/>
-      <c r="BJ5" s="109"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="108" t="s">
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="92"/>
+      <c r="BK5" s="93"/>
+      <c r="BL5" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="BM5" s="109"/>
-      <c r="BN5" s="109"/>
-      <c r="BO5" s="109"/>
-      <c r="BP5" s="110"/>
-      <c r="BQ5" s="108" t="s">
+      <c r="BM5" s="92"/>
+      <c r="BN5" s="92"/>
+      <c r="BO5" s="92"/>
+      <c r="BP5" s="93"/>
+      <c r="BQ5" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="BR5" s="109"/>
-      <c r="BS5" s="109"/>
-      <c r="BT5" s="109"/>
-      <c r="BU5" s="110"/>
-      <c r="BV5" s="108" t="s">
+      <c r="BR5" s="92"/>
+      <c r="BS5" s="92"/>
+      <c r="BT5" s="92"/>
+      <c r="BU5" s="93"/>
+      <c r="BV5" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="109"/>
-      <c r="BX5" s="109"/>
-      <c r="BY5" s="109"/>
-      <c r="BZ5" s="110"/>
-      <c r="CA5" s="108"/>
-      <c r="CB5" s="109"/>
-      <c r="CC5" s="109"/>
-      <c r="CD5" s="109"/>
-      <c r="CE5" s="110"/>
-      <c r="CF5" s="108"/>
-      <c r="CG5" s="109"/>
-      <c r="CH5" s="109"/>
-      <c r="CI5" s="109"/>
-      <c r="CJ5" s="110"/>
-      <c r="CK5" s="108"/>
-      <c r="CL5" s="109"/>
-      <c r="CM5" s="109"/>
-      <c r="CN5" s="109"/>
-      <c r="CO5" s="110"/>
-      <c r="CP5" s="108"/>
-      <c r="CQ5" s="109"/>
-      <c r="CR5" s="109"/>
-      <c r="CS5" s="109"/>
-      <c r="CT5" s="110"/>
-      <c r="CU5" s="108"/>
-      <c r="CV5" s="109"/>
-      <c r="CW5" s="109"/>
-      <c r="CX5" s="109"/>
-      <c r="CY5" s="110"/>
-      <c r="CZ5" s="108"/>
-      <c r="DA5" s="109"/>
-      <c r="DB5" s="109"/>
-      <c r="DC5" s="109"/>
-      <c r="DD5" s="110"/>
-      <c r="DE5" s="108"/>
-      <c r="DF5" s="109"/>
-      <c r="DG5" s="109"/>
-      <c r="DH5" s="109"/>
-      <c r="DI5" s="110"/>
+      <c r="BW5" s="92"/>
+      <c r="BX5" s="92"/>
+      <c r="BY5" s="92"/>
+      <c r="BZ5" s="93"/>
+      <c r="CA5" s="91"/>
+      <c r="CB5" s="92"/>
+      <c r="CC5" s="92"/>
+      <c r="CD5" s="92"/>
+      <c r="CE5" s="93"/>
+      <c r="CF5" s="91"/>
+      <c r="CG5" s="92"/>
+      <c r="CH5" s="92"/>
+      <c r="CI5" s="92"/>
+      <c r="CJ5" s="93"/>
+      <c r="CK5" s="91"/>
+      <c r="CL5" s="92"/>
+      <c r="CM5" s="92"/>
+      <c r="CN5" s="92"/>
+      <c r="CO5" s="93"/>
+      <c r="CP5" s="91"/>
+      <c r="CQ5" s="92"/>
+      <c r="CR5" s="92"/>
+      <c r="CS5" s="92"/>
+      <c r="CT5" s="93"/>
+      <c r="CU5" s="91"/>
+      <c r="CV5" s="92"/>
+      <c r="CW5" s="92"/>
+      <c r="CX5" s="92"/>
+      <c r="CY5" s="93"/>
+      <c r="CZ5" s="91"/>
+      <c r="DA5" s="92"/>
+      <c r="DB5" s="92"/>
+      <c r="DC5" s="92"/>
+      <c r="DD5" s="93"/>
+      <c r="DE5" s="91"/>
+      <c r="DF5" s="92"/>
+      <c r="DG5" s="92"/>
+      <c r="DH5" s="92"/>
+      <c r="DI5" s="93"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="119">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="94">
         <v>1</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="119">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="94">
         <v>2</v>
       </c>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="119">
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="94">
         <v>3</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="119">
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="94">
         <v>4</v>
       </c>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="119">
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="94">
         <v>5</v>
       </c>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="119">
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="94">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="119">
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="94">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="119">
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="94">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="119">
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="94">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="120"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="121"/>
-      <c r="BB6" s="119">
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="94">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="120"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="120"/>
-      <c r="BF6" s="121"/>
-      <c r="BG6" s="119">
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="94">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="120"/>
-      <c r="BJ6" s="120"/>
-      <c r="BK6" s="121"/>
-      <c r="BL6" s="119">
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="94">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="120"/>
-      <c r="BN6" s="120"/>
-      <c r="BO6" s="120"/>
-      <c r="BP6" s="121"/>
-      <c r="BQ6" s="119">
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
+      <c r="BP6" s="96"/>
+      <c r="BQ6" s="94">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="121"/>
-      <c r="BV6" s="119">
+      <c r="BR6" s="95"/>
+      <c r="BS6" s="95"/>
+      <c r="BT6" s="95"/>
+      <c r="BU6" s="96"/>
+      <c r="BV6" s="94">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="120"/>
-      <c r="BX6" s="120"/>
-      <c r="BY6" s="120"/>
-      <c r="BZ6" s="121"/>
-      <c r="CA6" s="119">
+      <c r="BW6" s="95"/>
+      <c r="BX6" s="95"/>
+      <c r="BY6" s="95"/>
+      <c r="BZ6" s="96"/>
+      <c r="CA6" s="94">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="120"/>
-      <c r="CC6" s="120"/>
-      <c r="CD6" s="120"/>
-      <c r="CE6" s="121"/>
-      <c r="CF6" s="119">
+      <c r="CB6" s="95"/>
+      <c r="CC6" s="95"/>
+      <c r="CD6" s="95"/>
+      <c r="CE6" s="96"/>
+      <c r="CF6" s="94">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="120"/>
-      <c r="CH6" s="120"/>
-      <c r="CI6" s="120"/>
-      <c r="CJ6" s="121"/>
-      <c r="CK6" s="119">
+      <c r="CG6" s="95"/>
+      <c r="CH6" s="95"/>
+      <c r="CI6" s="95"/>
+      <c r="CJ6" s="96"/>
+      <c r="CK6" s="94">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="120"/>
-      <c r="CM6" s="120"/>
-      <c r="CN6" s="120"/>
-      <c r="CO6" s="121"/>
-      <c r="CP6" s="119">
+      <c r="CL6" s="95"/>
+      <c r="CM6" s="95"/>
+      <c r="CN6" s="95"/>
+      <c r="CO6" s="96"/>
+      <c r="CP6" s="94">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="120"/>
-      <c r="CR6" s="120"/>
-      <c r="CS6" s="120"/>
-      <c r="CT6" s="121"/>
-      <c r="CU6" s="119">
+      <c r="CQ6" s="95"/>
+      <c r="CR6" s="95"/>
+      <c r="CS6" s="95"/>
+      <c r="CT6" s="96"/>
+      <c r="CU6" s="94">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="120"/>
-      <c r="CW6" s="120"/>
-      <c r="CX6" s="120"/>
-      <c r="CY6" s="121"/>
-      <c r="CZ6" s="119">
+      <c r="CV6" s="95"/>
+      <c r="CW6" s="95"/>
+      <c r="CX6" s="95"/>
+      <c r="CY6" s="96"/>
+      <c r="CZ6" s="94">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="120"/>
-      <c r="DB6" s="120"/>
-      <c r="DC6" s="120"/>
-      <c r="DD6" s="121"/>
-      <c r="DE6" s="119">
+      <c r="DA6" s="95"/>
+      <c r="DB6" s="95"/>
+      <c r="DC6" s="95"/>
+      <c r="DD6" s="96"/>
+      <c r="DE6" s="94">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="120"/>
-      <c r="DG6" s="120"/>
-      <c r="DH6" s="120"/>
-      <c r="DI6" s="121"/>
+      <c r="DF6" s="95"/>
+      <c r="DG6" s="95"/>
+      <c r="DH6" s="95"/>
+      <c r="DI6" s="96"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -9513,13 +9557,13 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="98" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -9739,9 +9783,9 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="112"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="75" t="s">
         <v>156</v>
       </c>
@@ -9959,9 +10003,9 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="112"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="91" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="98" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="75" t="s">
@@ -10181,9 +10225,9 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="112"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="20" t="s">
         <v>1</v>
       </c>
@@ -10399,11 +10443,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="112"/>
-      <c r="C13" s="116" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="119" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -10623,9 +10667,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="112"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="104"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="34" t="s">
         <v>6</v>
       </c>
@@ -10843,9 +10887,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="34" t="s">
         <v>119</v>
       </c>
@@ -11039,8 +11083,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="112"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -11185,8 +11229,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="112"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -11333,8 +11377,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="92"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -11539,7 +11583,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="111" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -11713,11 +11757,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="97"/>
-      <c r="C20" s="113" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="114" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -11885,9 +11929,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="97"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -12015,9 +12059,9 @@
       <c r="DI21" s="37"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="97"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="99" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="114" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -12187,9 +12231,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="97"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="100"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="76" t="s">
         <v>157</v>
       </c>
@@ -12353,11 +12397,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="97"/>
-      <c r="C24" s="113" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="114" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="72" t="s">
@@ -12513,9 +12557,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="97"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="72" t="s">
         <v>131</v>
       </c>
@@ -12679,7 +12723,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="97"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="40" t="s">
         <v>132</v>
       </c>
@@ -12839,7 +12883,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="97"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
         <v>162</v>
@@ -12959,7 +13003,7 @@
       <c r="DI27" s="78"/>
     </row>
     <row r="28" spans="2:113" ht="26.4">
-      <c r="B28" s="98"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
         <v>163</v>
@@ -13091,7 +13135,7 @@
       <c r="DI28" s="78"/>
     </row>
     <row r="29" spans="2:113" ht="66">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="116" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="49" t="s">
@@ -13295,8 +13339,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4">
-      <c r="B30" s="101"/>
-      <c r="C30" s="93" t="s">
+      <c r="B30" s="116"/>
+      <c r="C30" s="108" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -13471,8 +13515,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6">
-      <c r="B31" s="101"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -13667,8 +13711,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113">
-      <c r="B32" s="101"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="60" t="s">
         <v>183</v>
       </c>
@@ -13801,8 +13845,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113">
-      <c r="B33" s="101"/>
-      <c r="C33" s="95"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="82" t="s">
         <v>161</v>
       </c>
@@ -13959,8 +14003,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113">
-      <c r="B34" s="101"/>
-      <c r="C34" s="102" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="117" t="s">
         <v>141</v>
       </c>
       <c r="D34" s="50" t="s">
@@ -14171,8 +14215,8 @@
       <c r="DI34" s="59"/>
     </row>
     <row r="35" spans="2:113">
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="50" t="s">
         <v>144</v>
       </c>
@@ -14375,8 +14419,8 @@
       <c r="DI35" s="59"/>
     </row>
     <row r="36" spans="2:113" ht="26.4">
-      <c r="B36" s="101"/>
-      <c r="C36" s="102"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="50" t="s">
         <v>146</v>
       </c>
@@ -14606,50 +14650,46 @@
   </sheetData>
   <autoFilter ref="B7:AB36"/>
   <mergeCells count="108">
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="BV5:BZ5"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CZ2:DD2"/>
-    <mergeCell ref="CZ3:DD3"/>
-    <mergeCell ref="CZ5:DD5"/>
-    <mergeCell ref="CZ6:DD6"/>
-    <mergeCell ref="CA2:CE2"/>
-    <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF2:CJ2"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="DE2:DI2"/>
-    <mergeCell ref="DE3:DI3"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CP3:CT3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU2:CY2"/>
-    <mergeCell ref="CU3:CY3"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL2:BP2"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BL5:BP5"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="BQ2:BU2"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="BB2:BF2"/>
     <mergeCell ref="BB3:BF3"/>
     <mergeCell ref="BB5:BF5"/>
@@ -14674,46 +14714,50 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL2:BP2"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BL5:BP5"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="DE2:DI2"/>
+    <mergeCell ref="DE3:DI3"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CP3:CT3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="CU3:CY3"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="BV5:BZ5"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CZ2:DD2"/>
+    <mergeCell ref="CZ3:DD3"/>
+    <mergeCell ref="CZ5:DD5"/>
+    <mergeCell ref="CZ6:DD6"/>
+    <mergeCell ref="CA2:CE2"/>
+    <mergeCell ref="CA3:CE3"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF2:CJ2"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="BV6:BZ6"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="424" priority="159"/>
@@ -15420,11 +15464,11 @@
   <dimension ref="B1:DI34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BC10" sqref="BC10"/>
       <selection pane="topRight" activeCell="BC10" sqref="BC10"/>
       <selection pane="bottomLeft" activeCell="BC10" sqref="BC10"/>
-      <selection pane="bottomRight" activeCell="AG28" sqref="I9:AG28"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15456,10 +15500,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="122"/>
+      <c r="C2" s="107"/>
       <c r="E2" s="21" t="s">
         <v>166</v>
       </c>
@@ -15809,329 +15853,329 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="108" t="s">
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="108" t="s">
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="108" t="s">
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="108" t="s">
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="109"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="108"/>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="109"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="108"/>
-      <c r="BH5" s="109"/>
-      <c r="BI5" s="109"/>
-      <c r="BJ5" s="109"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="108" t="s">
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="93"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="92"/>
+      <c r="BK5" s="93"/>
+      <c r="BL5" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="BM5" s="109"/>
-      <c r="BN5" s="109"/>
-      <c r="BO5" s="109"/>
-      <c r="BP5" s="110"/>
-      <c r="BQ5" s="108" t="s">
+      <c r="BM5" s="92"/>
+      <c r="BN5" s="92"/>
+      <c r="BO5" s="92"/>
+      <c r="BP5" s="93"/>
+      <c r="BQ5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BR5" s="109"/>
-      <c r="BS5" s="109"/>
-      <c r="BT5" s="109"/>
-      <c r="BU5" s="110"/>
-      <c r="BV5" s="108" t="s">
+      <c r="BR5" s="92"/>
+      <c r="BS5" s="92"/>
+      <c r="BT5" s="92"/>
+      <c r="BU5" s="93"/>
+      <c r="BV5" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="109"/>
-      <c r="BX5" s="109"/>
-      <c r="BY5" s="109"/>
-      <c r="BZ5" s="110"/>
-      <c r="CA5" s="108"/>
-      <c r="CB5" s="109"/>
-      <c r="CC5" s="109"/>
-      <c r="CD5" s="109"/>
-      <c r="CE5" s="110"/>
-      <c r="CF5" s="108"/>
-      <c r="CG5" s="109"/>
-      <c r="CH5" s="109"/>
-      <c r="CI5" s="109"/>
-      <c r="CJ5" s="110"/>
-      <c r="CK5" s="108"/>
-      <c r="CL5" s="109"/>
-      <c r="CM5" s="109"/>
-      <c r="CN5" s="109"/>
-      <c r="CO5" s="110"/>
-      <c r="CP5" s="108"/>
-      <c r="CQ5" s="109"/>
-      <c r="CR5" s="109"/>
-      <c r="CS5" s="109"/>
-      <c r="CT5" s="110"/>
-      <c r="CU5" s="108"/>
-      <c r="CV5" s="109"/>
-      <c r="CW5" s="109"/>
-      <c r="CX5" s="109"/>
-      <c r="CY5" s="110"/>
-      <c r="CZ5" s="108"/>
-      <c r="DA5" s="109"/>
-      <c r="DB5" s="109"/>
-      <c r="DC5" s="109"/>
-      <c r="DD5" s="110"/>
-      <c r="DE5" s="108"/>
-      <c r="DF5" s="109"/>
-      <c r="DG5" s="109"/>
-      <c r="DH5" s="109"/>
-      <c r="DI5" s="110"/>
+      <c r="BW5" s="92"/>
+      <c r="BX5" s="92"/>
+      <c r="BY5" s="92"/>
+      <c r="BZ5" s="93"/>
+      <c r="CA5" s="91"/>
+      <c r="CB5" s="92"/>
+      <c r="CC5" s="92"/>
+      <c r="CD5" s="92"/>
+      <c r="CE5" s="93"/>
+      <c r="CF5" s="91"/>
+      <c r="CG5" s="92"/>
+      <c r="CH5" s="92"/>
+      <c r="CI5" s="92"/>
+      <c r="CJ5" s="93"/>
+      <c r="CK5" s="91"/>
+      <c r="CL5" s="92"/>
+      <c r="CM5" s="92"/>
+      <c r="CN5" s="92"/>
+      <c r="CO5" s="93"/>
+      <c r="CP5" s="91"/>
+      <c r="CQ5" s="92"/>
+      <c r="CR5" s="92"/>
+      <c r="CS5" s="92"/>
+      <c r="CT5" s="93"/>
+      <c r="CU5" s="91"/>
+      <c r="CV5" s="92"/>
+      <c r="CW5" s="92"/>
+      <c r="CX5" s="92"/>
+      <c r="CY5" s="93"/>
+      <c r="CZ5" s="91"/>
+      <c r="DA5" s="92"/>
+      <c r="DB5" s="92"/>
+      <c r="DC5" s="92"/>
+      <c r="DD5" s="93"/>
+      <c r="DE5" s="91"/>
+      <c r="DF5" s="92"/>
+      <c r="DG5" s="92"/>
+      <c r="DH5" s="92"/>
+      <c r="DI5" s="93"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="119">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="94">
         <v>1</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="119">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="94">
         <v>2</v>
       </c>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="119">
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="94">
         <v>3</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="119">
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="94">
         <v>4</v>
       </c>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="119">
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="94">
         <v>5</v>
       </c>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="119">
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="94">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="119">
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="94">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="119">
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="94">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="119">
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="94">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="120"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="121"/>
-      <c r="BB6" s="119">
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="94">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="120"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="120"/>
-      <c r="BF6" s="121"/>
-      <c r="BG6" s="119">
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="94">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="120"/>
-      <c r="BJ6" s="120"/>
-      <c r="BK6" s="121"/>
-      <c r="BL6" s="119">
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="94">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="120"/>
-      <c r="BN6" s="120"/>
-      <c r="BO6" s="120"/>
-      <c r="BP6" s="121"/>
-      <c r="BQ6" s="119">
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
+      <c r="BP6" s="96"/>
+      <c r="BQ6" s="94">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="121"/>
-      <c r="BV6" s="119">
+      <c r="BR6" s="95"/>
+      <c r="BS6" s="95"/>
+      <c r="BT6" s="95"/>
+      <c r="BU6" s="96"/>
+      <c r="BV6" s="94">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="120"/>
-      <c r="BX6" s="120"/>
-      <c r="BY6" s="120"/>
-      <c r="BZ6" s="121"/>
-      <c r="CA6" s="119">
+      <c r="BW6" s="95"/>
+      <c r="BX6" s="95"/>
+      <c r="BY6" s="95"/>
+      <c r="BZ6" s="96"/>
+      <c r="CA6" s="94">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="120"/>
-      <c r="CC6" s="120"/>
-      <c r="CD6" s="120"/>
-      <c r="CE6" s="121"/>
-      <c r="CF6" s="119">
+      <c r="CB6" s="95"/>
+      <c r="CC6" s="95"/>
+      <c r="CD6" s="95"/>
+      <c r="CE6" s="96"/>
+      <c r="CF6" s="94">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="120"/>
-      <c r="CH6" s="120"/>
-      <c r="CI6" s="120"/>
-      <c r="CJ6" s="121"/>
-      <c r="CK6" s="119">
+      <c r="CG6" s="95"/>
+      <c r="CH6" s="95"/>
+      <c r="CI6" s="95"/>
+      <c r="CJ6" s="96"/>
+      <c r="CK6" s="94">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="120"/>
-      <c r="CM6" s="120"/>
-      <c r="CN6" s="120"/>
-      <c r="CO6" s="121"/>
-      <c r="CP6" s="119">
+      <c r="CL6" s="95"/>
+      <c r="CM6" s="95"/>
+      <c r="CN6" s="95"/>
+      <c r="CO6" s="96"/>
+      <c r="CP6" s="94">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="120"/>
-      <c r="CR6" s="120"/>
-      <c r="CS6" s="120"/>
-      <c r="CT6" s="121"/>
-      <c r="CU6" s="119">
+      <c r="CQ6" s="95"/>
+      <c r="CR6" s="95"/>
+      <c r="CS6" s="95"/>
+      <c r="CT6" s="96"/>
+      <c r="CU6" s="94">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="120"/>
-      <c r="CW6" s="120"/>
-      <c r="CX6" s="120"/>
-      <c r="CY6" s="121"/>
-      <c r="CZ6" s="119">
+      <c r="CV6" s="95"/>
+      <c r="CW6" s="95"/>
+      <c r="CX6" s="95"/>
+      <c r="CY6" s="96"/>
+      <c r="CZ6" s="94">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="120"/>
-      <c r="DB6" s="120"/>
-      <c r="DC6" s="120"/>
-      <c r="DD6" s="121"/>
-      <c r="DE6" s="119">
+      <c r="DA6" s="95"/>
+      <c r="DB6" s="95"/>
+      <c r="DC6" s="95"/>
+      <c r="DD6" s="96"/>
+      <c r="DE6" s="94">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="120"/>
-      <c r="DG6" s="120"/>
-      <c r="DH6" s="120"/>
-      <c r="DI6" s="121"/>
+      <c r="DF6" s="95"/>
+      <c r="DG6" s="95"/>
+      <c r="DH6" s="95"/>
+      <c r="DI6" s="96"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -16693,10 +16737,10 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="123" t="s">
@@ -16845,8 +16889,8 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="112"/>
-      <c r="C10" s="103"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="124"/>
       <c r="E10" s="75" t="s">
         <v>154</v>
@@ -16985,8 +17029,8 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="112"/>
-      <c r="C11" s="103"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="123" t="s">
         <v>117</v>
       </c>
@@ -17135,8 +17179,8 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="112"/>
-      <c r="C12" s="103"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="124"/>
       <c r="E12" s="20" t="s">
         <v>1</v>
@@ -17319,11 +17363,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="112"/>
-      <c r="C13" s="116" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="119" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -17467,9 +17511,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="112"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="104"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="63" t="s">
         <v>6</v>
       </c>
@@ -17605,9 +17649,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="63" t="s">
         <v>119</v>
       </c>
@@ -17759,8 +17803,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="112"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -17903,8 +17947,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="112"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -18031,8 +18075,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="92"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -18183,7 +18227,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="111" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -18329,11 +18373,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="97"/>
-      <c r="C20" s="113" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="114" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -18481,9 +18525,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="97"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -18617,9 +18661,9 @@
       <c r="DI21" s="32"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="97"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="99" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="114" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -18767,9 +18811,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="97"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="100"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="77" t="s">
         <v>157</v>
       </c>
@@ -18911,11 +18955,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="97"/>
-      <c r="C24" s="113" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="114" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -19049,9 +19093,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="97"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="46" t="s">
         <v>131</v>
       </c>
@@ -19197,7 +19241,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="97"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="76" t="s">
@@ -19323,7 +19367,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="97"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="76" t="s">
@@ -19445,7 +19489,7 @@
       <c r="DI27" s="37"/>
     </row>
     <row r="28" spans="2:113">
-      <c r="B28" s="98"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="40" t="s">
         <v>132</v>
       </c>
@@ -19595,7 +19639,7 @@
       <c r="DI28" s="37"/>
     </row>
     <row r="29" spans="2:113" ht="66" hidden="1">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="116" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="62" t="s">
@@ -19719,8 +19763,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4" hidden="1">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102" t="s">
+      <c r="B30" s="116"/>
+      <c r="C30" s="117" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -19841,8 +19885,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6" hidden="1">
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -19961,8 +20005,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113" hidden="1">
-      <c r="B32" s="101"/>
-      <c r="C32" s="102" t="s">
+      <c r="B32" s="116"/>
+      <c r="C32" s="117" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -20083,8 +20127,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113" hidden="1">
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="50" t="s">
         <v>144</v>
       </c>
@@ -20203,8 +20247,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113" ht="26.4" hidden="1">
-      <c r="B34" s="101"/>
-      <c r="C34" s="102"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="50" t="s">
         <v>146</v>
       </c>
@@ -20325,6 +20369,90 @@
   </sheetData>
   <autoFilter ref="B7:AB34"/>
   <mergeCells count="108">
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CA3:CE3"/>
+    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="CZ2:DD2"/>
+    <mergeCell ref="DE2:DI2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="BL2:BP2"/>
+    <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="CA2:CE2"/>
+    <mergeCell ref="CF2:CJ2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BF2"/>
+    <mergeCell ref="CP3:CT3"/>
+    <mergeCell ref="CU3:CY3"/>
+    <mergeCell ref="CZ3:DD3"/>
+    <mergeCell ref="DE3:DI3"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="I6:M6"/>
     <mergeCell ref="BL6:BP6"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="D9:D10"/>
@@ -20349,90 +20477,6 @@
     <mergeCell ref="BB5:BF5"/>
     <mergeCell ref="BG5:BK5"/>
     <mergeCell ref="S5:W5"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="CU3:CY3"/>
-    <mergeCell ref="CZ3:DD3"/>
-    <mergeCell ref="DE3:DI3"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="CU2:CY2"/>
-    <mergeCell ref="CZ2:DD2"/>
-    <mergeCell ref="DE2:DI2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BL2:BP2"/>
-    <mergeCell ref="BQ2:BU2"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="CA2:CE2"/>
-    <mergeCell ref="CF2:CJ2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BF2"/>
-    <mergeCell ref="CP3:CT3"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="276" priority="106"/>
@@ -20894,11 +20938,11 @@
   <dimension ref="B1:DI34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BC10" sqref="BC10"/>
       <selection pane="topRight" activeCell="BC10" sqref="BC10"/>
       <selection pane="bottomLeft" activeCell="BC10" sqref="BC10"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9:M28"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20930,10 +20974,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="122"/>
+      <c r="C2" s="107"/>
       <c r="E2" s="21" t="s">
         <v>103</v>
       </c>
@@ -21283,321 +21327,321 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="109"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="108"/>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="109"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="108"/>
-      <c r="BH5" s="109"/>
-      <c r="BI5" s="109"/>
-      <c r="BJ5" s="109"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="108" t="s">
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="93"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="92"/>
+      <c r="BK5" s="93"/>
+      <c r="BL5" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="BM5" s="109"/>
-      <c r="BN5" s="109"/>
-      <c r="BO5" s="109"/>
-      <c r="BP5" s="110"/>
-      <c r="BQ5" s="108" t="s">
+      <c r="BM5" s="92"/>
+      <c r="BN5" s="92"/>
+      <c r="BO5" s="92"/>
+      <c r="BP5" s="93"/>
+      <c r="BQ5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BR5" s="109"/>
-      <c r="BS5" s="109"/>
-      <c r="BT5" s="109"/>
-      <c r="BU5" s="110"/>
-      <c r="BV5" s="108" t="s">
+      <c r="BR5" s="92"/>
+      <c r="BS5" s="92"/>
+      <c r="BT5" s="92"/>
+      <c r="BU5" s="93"/>
+      <c r="BV5" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="109"/>
-      <c r="BX5" s="109"/>
-      <c r="BY5" s="109"/>
-      <c r="BZ5" s="110"/>
-      <c r="CA5" s="108"/>
-      <c r="CB5" s="109"/>
-      <c r="CC5" s="109"/>
-      <c r="CD5" s="109"/>
-      <c r="CE5" s="110"/>
-      <c r="CF5" s="108"/>
-      <c r="CG5" s="109"/>
-      <c r="CH5" s="109"/>
-      <c r="CI5" s="109"/>
-      <c r="CJ5" s="110"/>
-      <c r="CK5" s="108"/>
-      <c r="CL5" s="109"/>
-      <c r="CM5" s="109"/>
-      <c r="CN5" s="109"/>
-      <c r="CO5" s="110"/>
-      <c r="CP5" s="108"/>
-      <c r="CQ5" s="109"/>
-      <c r="CR5" s="109"/>
-      <c r="CS5" s="109"/>
-      <c r="CT5" s="110"/>
-      <c r="CU5" s="108"/>
-      <c r="CV5" s="109"/>
-      <c r="CW5" s="109"/>
-      <c r="CX5" s="109"/>
-      <c r="CY5" s="110"/>
-      <c r="CZ5" s="108"/>
-      <c r="DA5" s="109"/>
-      <c r="DB5" s="109"/>
-      <c r="DC5" s="109"/>
-      <c r="DD5" s="110"/>
-      <c r="DE5" s="108"/>
-      <c r="DF5" s="109"/>
-      <c r="DG5" s="109"/>
-      <c r="DH5" s="109"/>
-      <c r="DI5" s="110"/>
+      <c r="BW5" s="92"/>
+      <c r="BX5" s="92"/>
+      <c r="BY5" s="92"/>
+      <c r="BZ5" s="93"/>
+      <c r="CA5" s="91"/>
+      <c r="CB5" s="92"/>
+      <c r="CC5" s="92"/>
+      <c r="CD5" s="92"/>
+      <c r="CE5" s="93"/>
+      <c r="CF5" s="91"/>
+      <c r="CG5" s="92"/>
+      <c r="CH5" s="92"/>
+      <c r="CI5" s="92"/>
+      <c r="CJ5" s="93"/>
+      <c r="CK5" s="91"/>
+      <c r="CL5" s="92"/>
+      <c r="CM5" s="92"/>
+      <c r="CN5" s="92"/>
+      <c r="CO5" s="93"/>
+      <c r="CP5" s="91"/>
+      <c r="CQ5" s="92"/>
+      <c r="CR5" s="92"/>
+      <c r="CS5" s="92"/>
+      <c r="CT5" s="93"/>
+      <c r="CU5" s="91"/>
+      <c r="CV5" s="92"/>
+      <c r="CW5" s="92"/>
+      <c r="CX5" s="92"/>
+      <c r="CY5" s="93"/>
+      <c r="CZ5" s="91"/>
+      <c r="DA5" s="92"/>
+      <c r="DB5" s="92"/>
+      <c r="DC5" s="92"/>
+      <c r="DD5" s="93"/>
+      <c r="DE5" s="91"/>
+      <c r="DF5" s="92"/>
+      <c r="DG5" s="92"/>
+      <c r="DH5" s="92"/>
+      <c r="DI5" s="93"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="119">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="94">
         <v>1</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="119">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="94">
         <v>2</v>
       </c>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="119">
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="94">
         <v>3</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="119">
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="94">
         <v>4</v>
       </c>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="119">
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="94">
         <v>5</v>
       </c>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="119">
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="94">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="119">
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="94">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="119">
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="94">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="119">
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="94">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="120"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="121"/>
-      <c r="BB6" s="119">
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="94">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="120"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="120"/>
-      <c r="BF6" s="121"/>
-      <c r="BG6" s="119">
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="94">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="120"/>
-      <c r="BJ6" s="120"/>
-      <c r="BK6" s="121"/>
-      <c r="BL6" s="119">
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="94">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="120"/>
-      <c r="BN6" s="120"/>
-      <c r="BO6" s="120"/>
-      <c r="BP6" s="121"/>
-      <c r="BQ6" s="119">
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
+      <c r="BP6" s="96"/>
+      <c r="BQ6" s="94">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="121"/>
-      <c r="BV6" s="119">
+      <c r="BR6" s="95"/>
+      <c r="BS6" s="95"/>
+      <c r="BT6" s="95"/>
+      <c r="BU6" s="96"/>
+      <c r="BV6" s="94">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="120"/>
-      <c r="BX6" s="120"/>
-      <c r="BY6" s="120"/>
-      <c r="BZ6" s="121"/>
-      <c r="CA6" s="119">
+      <c r="BW6" s="95"/>
+      <c r="BX6" s="95"/>
+      <c r="BY6" s="95"/>
+      <c r="BZ6" s="96"/>
+      <c r="CA6" s="94">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="120"/>
-      <c r="CC6" s="120"/>
-      <c r="CD6" s="120"/>
-      <c r="CE6" s="121"/>
-      <c r="CF6" s="119">
+      <c r="CB6" s="95"/>
+      <c r="CC6" s="95"/>
+      <c r="CD6" s="95"/>
+      <c r="CE6" s="96"/>
+      <c r="CF6" s="94">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="120"/>
-      <c r="CH6" s="120"/>
-      <c r="CI6" s="120"/>
-      <c r="CJ6" s="121"/>
-      <c r="CK6" s="119">
+      <c r="CG6" s="95"/>
+      <c r="CH6" s="95"/>
+      <c r="CI6" s="95"/>
+      <c r="CJ6" s="96"/>
+      <c r="CK6" s="94">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="120"/>
-      <c r="CM6" s="120"/>
-      <c r="CN6" s="120"/>
-      <c r="CO6" s="121"/>
-      <c r="CP6" s="119">
+      <c r="CL6" s="95"/>
+      <c r="CM6" s="95"/>
+      <c r="CN6" s="95"/>
+      <c r="CO6" s="96"/>
+      <c r="CP6" s="94">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="120"/>
-      <c r="CR6" s="120"/>
-      <c r="CS6" s="120"/>
-      <c r="CT6" s="121"/>
-      <c r="CU6" s="119">
+      <c r="CQ6" s="95"/>
+      <c r="CR6" s="95"/>
+      <c r="CS6" s="95"/>
+      <c r="CT6" s="96"/>
+      <c r="CU6" s="94">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="120"/>
-      <c r="CW6" s="120"/>
-      <c r="CX6" s="120"/>
-      <c r="CY6" s="121"/>
-      <c r="CZ6" s="119">
+      <c r="CV6" s="95"/>
+      <c r="CW6" s="95"/>
+      <c r="CX6" s="95"/>
+      <c r="CY6" s="96"/>
+      <c r="CZ6" s="94">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="120"/>
-      <c r="DB6" s="120"/>
-      <c r="DC6" s="120"/>
-      <c r="DD6" s="121"/>
-      <c r="DE6" s="119">
+      <c r="DA6" s="95"/>
+      <c r="DB6" s="95"/>
+      <c r="DC6" s="95"/>
+      <c r="DD6" s="96"/>
+      <c r="DE6" s="94">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="120"/>
-      <c r="DG6" s="120"/>
-      <c r="DH6" s="120"/>
-      <c r="DI6" s="121"/>
+      <c r="DF6" s="95"/>
+      <c r="DG6" s="95"/>
+      <c r="DH6" s="95"/>
+      <c r="DI6" s="96"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -22157,13 +22201,13 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="119" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -22315,9 +22359,9 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="112"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="75" t="s">
         <v>154</v>
       </c>
@@ -22459,9 +22503,9 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="112"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="75" t="s">
         <v>155</v>
       </c>
@@ -22595,8 +22639,8 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="112"/>
-      <c r="C12" s="103"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="85" t="s">
         <v>117</v>
       </c>
@@ -22777,11 +22821,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="112"/>
-      <c r="C13" s="116" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="119" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -22931,9 +22975,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="112"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="104"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="85" t="s">
         <v>6</v>
       </c>
@@ -23073,9 +23117,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="85" t="s">
         <v>119</v>
       </c>
@@ -23213,8 +23257,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="112"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -23345,8 +23389,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="112"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -23473,8 +23517,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="92"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -23631,7 +23675,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="111" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -23769,11 +23813,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="97"/>
-      <c r="C20" s="113" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="114" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -23913,9 +23957,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="97"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -24041,9 +24085,9 @@
       <c r="DI21" s="32"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="97"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="99" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="114" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -24183,9 +24227,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="97"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="100"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="77" t="s">
         <v>157</v>
       </c>
@@ -24319,11 +24363,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="97"/>
-      <c r="C24" s="113" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="114" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -24453,9 +24497,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="97"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="46" t="s">
         <v>131</v>
       </c>
@@ -24593,7 +24637,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="97"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="86"/>
       <c r="D26" s="87"/>
       <c r="E26" s="76" t="s">
@@ -24715,7 +24759,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="97"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="86"/>
       <c r="D27" s="87"/>
       <c r="E27" s="76" t="s">
@@ -24837,7 +24881,7 @@
       <c r="DI27" s="37"/>
     </row>
     <row r="28" spans="2:113">
-      <c r="B28" s="98"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="40" t="s">
         <v>132</v>
       </c>
@@ -24981,7 +25025,7 @@
       <c r="DI28" s="37"/>
     </row>
     <row r="29" spans="2:113" ht="66" hidden="1">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="116" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -25105,8 +25149,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4" hidden="1">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102" t="s">
+      <c r="B30" s="116"/>
+      <c r="C30" s="117" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -25227,8 +25271,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6" hidden="1">
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -25347,8 +25391,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113" hidden="1">
-      <c r="B32" s="101"/>
-      <c r="C32" s="102" t="s">
+      <c r="B32" s="116"/>
+      <c r="C32" s="117" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -25469,8 +25513,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113" hidden="1">
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="50" t="s">
         <v>144</v>
       </c>
@@ -25589,8 +25633,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113" ht="26.4" hidden="1">
-      <c r="B34" s="101"/>
-      <c r="C34" s="102"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="50" t="s">
         <v>146</v>
       </c>
@@ -25711,80 +25755,15 @@
   </sheetData>
   <autoFilter ref="B7:AB34"/>
   <mergeCells count="107">
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="BL5:BP5"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BV5:BZ5"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="CZ6:DD6"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="CZ5:DD5"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CU2:CY2"/>
     <mergeCell ref="CZ2:DD2"/>
     <mergeCell ref="DE2:DI2"/>
     <mergeCell ref="I3:M3"/>
@@ -25809,15 +25788,80 @@
     <mergeCell ref="CZ3:DD3"/>
     <mergeCell ref="DE3:DI3"/>
     <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="CZ5:DD5"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="BL5:BP5"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BV5:BZ5"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="CZ6:DD6"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="177" priority="100"/>
@@ -26248,12 +26292,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BC10" sqref="BC10"/>
       <selection pane="topRight" activeCell="BC10" sqref="BC10"/>
       <selection pane="bottomLeft" activeCell="BC10" sqref="BC10"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9:M28"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26285,10 +26329,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="122"/>
+      <c r="C2" s="107"/>
       <c r="E2" s="21" t="s">
         <v>103</v>
       </c>
@@ -26638,321 +26682,321 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="109"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="108"/>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="109"/>
-      <c r="BF5" s="110"/>
-      <c r="BG5" s="108"/>
-      <c r="BH5" s="109"/>
-      <c r="BI5" s="109"/>
-      <c r="BJ5" s="109"/>
-      <c r="BK5" s="110"/>
-      <c r="BL5" s="108" t="s">
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="92"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="92"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="91"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="93"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="92"/>
+      <c r="BK5" s="93"/>
+      <c r="BL5" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="BM5" s="109"/>
-      <c r="BN5" s="109"/>
-      <c r="BO5" s="109"/>
-      <c r="BP5" s="110"/>
-      <c r="BQ5" s="108" t="s">
+      <c r="BM5" s="92"/>
+      <c r="BN5" s="92"/>
+      <c r="BO5" s="92"/>
+      <c r="BP5" s="93"/>
+      <c r="BQ5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BR5" s="109"/>
-      <c r="BS5" s="109"/>
-      <c r="BT5" s="109"/>
-      <c r="BU5" s="110"/>
-      <c r="BV5" s="108" t="s">
+      <c r="BR5" s="92"/>
+      <c r="BS5" s="92"/>
+      <c r="BT5" s="92"/>
+      <c r="BU5" s="93"/>
+      <c r="BV5" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="109"/>
-      <c r="BX5" s="109"/>
-      <c r="BY5" s="109"/>
-      <c r="BZ5" s="110"/>
-      <c r="CA5" s="108"/>
-      <c r="CB5" s="109"/>
-      <c r="CC5" s="109"/>
-      <c r="CD5" s="109"/>
-      <c r="CE5" s="110"/>
-      <c r="CF5" s="108"/>
-      <c r="CG5" s="109"/>
-      <c r="CH5" s="109"/>
-      <c r="CI5" s="109"/>
-      <c r="CJ5" s="110"/>
-      <c r="CK5" s="108"/>
-      <c r="CL5" s="109"/>
-      <c r="CM5" s="109"/>
-      <c r="CN5" s="109"/>
-      <c r="CO5" s="110"/>
-      <c r="CP5" s="108"/>
-      <c r="CQ5" s="109"/>
-      <c r="CR5" s="109"/>
-      <c r="CS5" s="109"/>
-      <c r="CT5" s="110"/>
-      <c r="CU5" s="108"/>
-      <c r="CV5" s="109"/>
-      <c r="CW5" s="109"/>
-      <c r="CX5" s="109"/>
-      <c r="CY5" s="110"/>
-      <c r="CZ5" s="108"/>
-      <c r="DA5" s="109"/>
-      <c r="DB5" s="109"/>
-      <c r="DC5" s="109"/>
-      <c r="DD5" s="110"/>
-      <c r="DE5" s="108"/>
-      <c r="DF5" s="109"/>
-      <c r="DG5" s="109"/>
-      <c r="DH5" s="109"/>
-      <c r="DI5" s="110"/>
+      <c r="BW5" s="92"/>
+      <c r="BX5" s="92"/>
+      <c r="BY5" s="92"/>
+      <c r="BZ5" s="93"/>
+      <c r="CA5" s="91"/>
+      <c r="CB5" s="92"/>
+      <c r="CC5" s="92"/>
+      <c r="CD5" s="92"/>
+      <c r="CE5" s="93"/>
+      <c r="CF5" s="91"/>
+      <c r="CG5" s="92"/>
+      <c r="CH5" s="92"/>
+      <c r="CI5" s="92"/>
+      <c r="CJ5" s="93"/>
+      <c r="CK5" s="91"/>
+      <c r="CL5" s="92"/>
+      <c r="CM5" s="92"/>
+      <c r="CN5" s="92"/>
+      <c r="CO5" s="93"/>
+      <c r="CP5" s="91"/>
+      <c r="CQ5" s="92"/>
+      <c r="CR5" s="92"/>
+      <c r="CS5" s="92"/>
+      <c r="CT5" s="93"/>
+      <c r="CU5" s="91"/>
+      <c r="CV5" s="92"/>
+      <c r="CW5" s="92"/>
+      <c r="CX5" s="92"/>
+      <c r="CY5" s="93"/>
+      <c r="CZ5" s="91"/>
+      <c r="DA5" s="92"/>
+      <c r="DB5" s="92"/>
+      <c r="DC5" s="92"/>
+      <c r="DD5" s="93"/>
+      <c r="DE5" s="91"/>
+      <c r="DF5" s="92"/>
+      <c r="DG5" s="92"/>
+      <c r="DH5" s="92"/>
+      <c r="DI5" s="93"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="119">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="94">
         <v>1</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="119">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="94">
         <v>2</v>
       </c>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="119">
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="94">
         <v>3</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="119">
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="94">
         <v>4</v>
       </c>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="119">
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="94">
         <v>5</v>
       </c>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="119">
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="94">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="119">
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="94">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="119">
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="94">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="120"/>
-      <c r="AT6" s="120"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="119">
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="94">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="120"/>
-      <c r="AY6" s="120"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="121"/>
-      <c r="BB6" s="119">
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="94">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="120"/>
-      <c r="BD6" s="120"/>
-      <c r="BE6" s="120"/>
-      <c r="BF6" s="121"/>
-      <c r="BG6" s="119">
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="94">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="120"/>
-      <c r="BJ6" s="120"/>
-      <c r="BK6" s="121"/>
-      <c r="BL6" s="119">
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="94">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="120"/>
-      <c r="BN6" s="120"/>
-      <c r="BO6" s="120"/>
-      <c r="BP6" s="121"/>
-      <c r="BQ6" s="119">
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
+      <c r="BP6" s="96"/>
+      <c r="BQ6" s="94">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="121"/>
-      <c r="BV6" s="119">
+      <c r="BR6" s="95"/>
+      <c r="BS6" s="95"/>
+      <c r="BT6" s="95"/>
+      <c r="BU6" s="96"/>
+      <c r="BV6" s="94">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="120"/>
-      <c r="BX6" s="120"/>
-      <c r="BY6" s="120"/>
-      <c r="BZ6" s="121"/>
-      <c r="CA6" s="119">
+      <c r="BW6" s="95"/>
+      <c r="BX6" s="95"/>
+      <c r="BY6" s="95"/>
+      <c r="BZ6" s="96"/>
+      <c r="CA6" s="94">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="120"/>
-      <c r="CC6" s="120"/>
-      <c r="CD6" s="120"/>
-      <c r="CE6" s="121"/>
-      <c r="CF6" s="119">
+      <c r="CB6" s="95"/>
+      <c r="CC6" s="95"/>
+      <c r="CD6" s="95"/>
+      <c r="CE6" s="96"/>
+      <c r="CF6" s="94">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="120"/>
-      <c r="CH6" s="120"/>
-      <c r="CI6" s="120"/>
-      <c r="CJ6" s="121"/>
-      <c r="CK6" s="119">
+      <c r="CG6" s="95"/>
+      <c r="CH6" s="95"/>
+      <c r="CI6" s="95"/>
+      <c r="CJ6" s="96"/>
+      <c r="CK6" s="94">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="120"/>
-      <c r="CM6" s="120"/>
-      <c r="CN6" s="120"/>
-      <c r="CO6" s="121"/>
-      <c r="CP6" s="119">
+      <c r="CL6" s="95"/>
+      <c r="CM6" s="95"/>
+      <c r="CN6" s="95"/>
+      <c r="CO6" s="96"/>
+      <c r="CP6" s="94">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="120"/>
-      <c r="CR6" s="120"/>
-      <c r="CS6" s="120"/>
-      <c r="CT6" s="121"/>
-      <c r="CU6" s="119">
+      <c r="CQ6" s="95"/>
+      <c r="CR6" s="95"/>
+      <c r="CS6" s="95"/>
+      <c r="CT6" s="96"/>
+      <c r="CU6" s="94">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="120"/>
-      <c r="CW6" s="120"/>
-      <c r="CX6" s="120"/>
-      <c r="CY6" s="121"/>
-      <c r="CZ6" s="119">
+      <c r="CV6" s="95"/>
+      <c r="CW6" s="95"/>
+      <c r="CX6" s="95"/>
+      <c r="CY6" s="96"/>
+      <c r="CZ6" s="94">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="120"/>
-      <c r="DB6" s="120"/>
-      <c r="DC6" s="120"/>
-      <c r="DD6" s="121"/>
-      <c r="DE6" s="119">
+      <c r="DA6" s="95"/>
+      <c r="DB6" s="95"/>
+      <c r="DC6" s="95"/>
+      <c r="DD6" s="96"/>
+      <c r="DE6" s="94">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="120"/>
-      <c r="DG6" s="120"/>
-      <c r="DH6" s="120"/>
-      <c r="DI6" s="121"/>
+      <c r="DF6" s="95"/>
+      <c r="DG6" s="95"/>
+      <c r="DH6" s="95"/>
+      <c r="DI6" s="96"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -27510,13 +27554,13 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="119" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -27674,9 +27718,9 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="112"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="75" t="s">
         <v>154</v>
       </c>
@@ -27824,9 +27868,9 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="112"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="75" t="s">
         <v>155</v>
       </c>
@@ -27966,8 +28010,8 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="112"/>
-      <c r="C12" s="103"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="85" t="s">
         <v>117</v>
       </c>
@@ -28154,11 +28198,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="112"/>
-      <c r="C13" s="116" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="119" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -28314,9 +28358,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="112"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="104"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="85" t="s">
         <v>6</v>
       </c>
@@ -28462,9 +28506,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="85" t="s">
         <v>119</v>
       </c>
@@ -28596,8 +28640,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="112"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -28728,8 +28772,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="112"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -28856,8 +28900,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="92"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -29020,7 +29064,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="111" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -29156,11 +29200,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="97"/>
-      <c r="C20" s="113" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="114" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -29294,9 +29338,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="97"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -29416,9 +29460,9 @@
       <c r="DI21" s="32"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="97"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="99" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="114" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -29552,9 +29596,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="97"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="100"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="77" t="s">
         <v>157</v>
       </c>
@@ -29682,11 +29726,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="97"/>
-      <c r="C24" s="113" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="114" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -29816,9 +29860,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="97"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="46" t="s">
         <v>131</v>
       </c>
@@ -29950,7 +29994,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="97"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="86"/>
       <c r="D26" s="87"/>
       <c r="E26" s="76" t="s">
@@ -30072,7 +30116,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="97"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="86"/>
       <c r="D27" s="87"/>
       <c r="E27" s="76" t="s">
@@ -30194,7 +30238,7 @@
       <c r="DI27" s="37"/>
     </row>
     <row r="28" spans="2:113">
-      <c r="B28" s="98"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="40" t="s">
         <v>132</v>
       </c>
@@ -30332,7 +30376,7 @@
       <c r="DI28" s="37"/>
     </row>
     <row r="29" spans="2:113" ht="66" hidden="1">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="116" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -30456,8 +30500,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4" hidden="1">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102" t="s">
+      <c r="B30" s="116"/>
+      <c r="C30" s="117" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -30578,8 +30622,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6" hidden="1">
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -30698,8 +30742,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113" hidden="1">
-      <c r="B32" s="101"/>
-      <c r="C32" s="102" t="s">
+      <c r="B32" s="116"/>
+      <c r="C32" s="117" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -30820,8 +30864,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113" hidden="1">
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="50" t="s">
         <v>144</v>
       </c>
@@ -30940,8 +30984,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113" ht="26.4" hidden="1">
-      <c r="B34" s="101"/>
-      <c r="C34" s="102"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="50" t="s">
         <v>146</v>
       </c>
@@ -31062,80 +31106,15 @@
   </sheetData>
   <autoFilter ref="B7:AB34"/>
   <mergeCells count="107">
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="BL5:BP5"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BV5:BZ5"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="CZ6:DD6"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="CZ5:DD5"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CU2:CY2"/>
     <mergeCell ref="CZ2:DD2"/>
     <mergeCell ref="DE2:DI2"/>
     <mergeCell ref="I3:M3"/>
@@ -31160,15 +31139,80 @@
     <mergeCell ref="CZ3:DD3"/>
     <mergeCell ref="DE3:DI3"/>
     <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="CZ5:DD5"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="BL5:BP5"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BV5:BZ5"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="CZ6:DD6"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="84" priority="84"/>
@@ -31553,4 +31597,254 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="E2" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A4" s="112"/>
+      <c r="B4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="32">
+        <v>37.01</v>
+      </c>
+      <c r="F4" s="32">
+        <v>29.88</v>
+      </c>
+      <c r="G4" s="32">
+        <v>61.6</v>
+      </c>
+      <c r="H4" s="32">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="112"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="32">
+        <v>7.49</v>
+      </c>
+      <c r="F5" s="37">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="G5" s="32">
+        <v>14.75</v>
+      </c>
+      <c r="H5" s="32">
+        <v>12.79</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="112"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="32">
+        <v>36.72</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="32">
+        <v>62.11</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="32">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="112"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="32">
+        <v>13.53</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="32">
+        <v>38.35</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="32">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="112"/>
+      <c r="B8" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="112"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39.6">
+      <c r="A10" s="112"/>
+      <c r="B10" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="112"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4">
+      <c r="A12" s="113"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/VT2_Final_KPI - 2.xlsx
+++ b/VT2_Final_KPI - 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8796" tabRatio="684" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8796" tabRatio="684" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="360_Degree_Review" sheetId="69" state="hidden" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="Commited_Actual_2ndProject" sheetId="81" r:id="rId3"/>
     <sheet name="Commited_Actual_3rdProject" sheetId="84" r:id="rId4"/>
     <sheet name="Commited_Actual_4thProject" sheetId="85" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="86" r:id="rId6"/>
+    <sheet name="Summary_2020" sheetId="86" r:id="rId6"/>
+    <sheet name="2021" sheetId="87" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'360_Degree_Review'!$A$1:$H$74</definedName>
@@ -1156,7 +1157,7 @@
     <author>diemhang.nguyen@lge.com</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="250">
   <si>
     <t>[VW-MIB3_AVN]</t>
   </si>
@@ -1777,6 +1778,165 @@
   <si>
     <t>OTA</t>
   </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Y20 Actual</t>
+  </si>
+  <si>
+    <t>Y21 Goal</t>
+  </si>
+  <si>
+    <t>Manual Test</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tel FIT</t>
+  </si>
+  <si>
+    <t>TC/MD</t>
+  </si>
+  <si>
+    <t>AVN/FDT</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Cluster FIT</t>
+  </si>
+  <si>
+    <t>Tel ST</t>
+  </si>
+  <si>
+    <t>AVN ST</t>
+  </si>
+  <si>
+    <t>Report for REQ Readiness</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Report for REQ Implementation Rate</t>
+  </si>
+  <si>
+    <t>TC Density</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select 1-2 projects </t>
+  </si>
+  <si>
+    <t>Error Ticket Reject Ratio</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Including all before/after ET</t>
+  </si>
+  <si>
+    <t>Start to do ET for FIT projects</t>
+  </si>
+  <si>
+    <t>Defect Coverage in DCV test scope within test phases</t>
+  </si>
+  <si>
+    <t>Defect leakage in DCV test scope after launching</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Zero critical defect after launching</t>
+  </si>
+  <si>
+    <t>Workflow &amp; Test roadmap for Exploratory Test</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Score by Audit Checklist</t>
+  </si>
+  <si>
+    <t>Automation Coverage</t>
+  </si>
+  <si>
+    <t>Gen 12</t>
+  </si>
+  <si>
+    <t>Resource Mgt.</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow DCV’s goal </t>
+  </si>
+  <si>
+    <t>ISTQB Foundation Certi. Rate</t>
+  </si>
+  <si>
+    <t> 85</t>
+  </si>
+  <si>
+    <t>For members joined before 6/20</t>
+  </si>
+  <si>
+    <t>ISTQB Advanced Certi. Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For members joined before 6/20 </t>
+  </si>
+  <si>
+    <t>HQ Overall Satisfaction Score</t>
+  </si>
+  <si>
+    <t>(Max.10)</t>
+  </si>
+  <si>
+    <t>Survey from HQ Test manager</t>
+  </si>
+  <si>
+    <t>Technical Seminar ( internal VT)</t>
+  </si>
+  <si>
+    <t>Technical Seminar ( VT &amp; SD)</t>
+  </si>
 </sst>
 </file>
 
@@ -1785,7 +1945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2071,8 +2231,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,8 +2503,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2538,6 +2729,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2598,7 +2872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,56 +3120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2933,6 +3162,24 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2942,11 +3189,92 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -8159,6 +8487,16 @@
   </sheetData>
   <autoFilter ref="A1:H74"/>
   <mergeCells count="18">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A67:A70"/>
@@ -8167,16 +8505,6 @@
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G40 G43 G45:G48 G50:G73 G75:G1048576">
     <cfRule type="cellIs" dxfId="430" priority="6" operator="equal">
@@ -8257,12 +8585,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DI38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BC10" sqref="BC10"/>
       <selection pane="topRight" activeCell="BC10" sqref="BC10"/>
       <selection pane="bottomLeft" activeCell="BC10" sqref="BC10"/>
-      <selection pane="bottomRight" activeCell="AB20" sqref="AB20:AB28"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8294,10 +8622,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="107"/>
+      <c r="C2" s="122"/>
       <c r="E2" s="21" t="s">
         <v>103</v>
       </c>
@@ -8661,341 +8989,341 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="91" t="s">
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="91" t="s">
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="91" t="s">
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="91" t="s">
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="91" t="s">
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="91" t="s">
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="91" t="s">
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="91" t="s">
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="91" t="s">
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="93"/>
-      <c r="BG5" s="91" t="s">
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="91" t="s">
+      <c r="BH5" s="109"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="109"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="BM5" s="92"/>
-      <c r="BN5" s="92"/>
-      <c r="BO5" s="92"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="91" t="s">
+      <c r="BM5" s="109"/>
+      <c r="BN5" s="109"/>
+      <c r="BO5" s="109"/>
+      <c r="BP5" s="110"/>
+      <c r="BQ5" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="92"/>
-      <c r="BT5" s="92"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="91" t="s">
+      <c r="BR5" s="109"/>
+      <c r="BS5" s="109"/>
+      <c r="BT5" s="109"/>
+      <c r="BU5" s="110"/>
+      <c r="BV5" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="92"/>
-      <c r="BX5" s="92"/>
-      <c r="BY5" s="92"/>
-      <c r="BZ5" s="93"/>
-      <c r="CA5" s="91"/>
-      <c r="CB5" s="92"/>
-      <c r="CC5" s="92"/>
-      <c r="CD5" s="92"/>
-      <c r="CE5" s="93"/>
-      <c r="CF5" s="91"/>
-      <c r="CG5" s="92"/>
-      <c r="CH5" s="92"/>
-      <c r="CI5" s="92"/>
-      <c r="CJ5" s="93"/>
-      <c r="CK5" s="91"/>
-      <c r="CL5" s="92"/>
-      <c r="CM5" s="92"/>
-      <c r="CN5" s="92"/>
-      <c r="CO5" s="93"/>
-      <c r="CP5" s="91"/>
-      <c r="CQ5" s="92"/>
-      <c r="CR5" s="92"/>
-      <c r="CS5" s="92"/>
-      <c r="CT5" s="93"/>
-      <c r="CU5" s="91"/>
-      <c r="CV5" s="92"/>
-      <c r="CW5" s="92"/>
-      <c r="CX5" s="92"/>
-      <c r="CY5" s="93"/>
-      <c r="CZ5" s="91"/>
-      <c r="DA5" s="92"/>
-      <c r="DB5" s="92"/>
-      <c r="DC5" s="92"/>
-      <c r="DD5" s="93"/>
-      <c r="DE5" s="91"/>
-      <c r="DF5" s="92"/>
-      <c r="DG5" s="92"/>
-      <c r="DH5" s="92"/>
-      <c r="DI5" s="93"/>
+      <c r="BW5" s="109"/>
+      <c r="BX5" s="109"/>
+      <c r="BY5" s="109"/>
+      <c r="BZ5" s="110"/>
+      <c r="CA5" s="108"/>
+      <c r="CB5" s="109"/>
+      <c r="CC5" s="109"/>
+      <c r="CD5" s="109"/>
+      <c r="CE5" s="110"/>
+      <c r="CF5" s="108"/>
+      <c r="CG5" s="109"/>
+      <c r="CH5" s="109"/>
+      <c r="CI5" s="109"/>
+      <c r="CJ5" s="110"/>
+      <c r="CK5" s="108"/>
+      <c r="CL5" s="109"/>
+      <c r="CM5" s="109"/>
+      <c r="CN5" s="109"/>
+      <c r="CO5" s="110"/>
+      <c r="CP5" s="108"/>
+      <c r="CQ5" s="109"/>
+      <c r="CR5" s="109"/>
+      <c r="CS5" s="109"/>
+      <c r="CT5" s="110"/>
+      <c r="CU5" s="108"/>
+      <c r="CV5" s="109"/>
+      <c r="CW5" s="109"/>
+      <c r="CX5" s="109"/>
+      <c r="CY5" s="110"/>
+      <c r="CZ5" s="108"/>
+      <c r="DA5" s="109"/>
+      <c r="DB5" s="109"/>
+      <c r="DC5" s="109"/>
+      <c r="DD5" s="110"/>
+      <c r="DE5" s="108"/>
+      <c r="DF5" s="109"/>
+      <c r="DG5" s="109"/>
+      <c r="DH5" s="109"/>
+      <c r="DI5" s="110"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="94">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="119">
         <v>1</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="94">
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="119">
         <v>2</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="94">
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="119">
         <v>3</v>
       </c>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="94">
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="119">
         <v>4</v>
       </c>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="94">
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="119">
         <v>5</v>
       </c>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="94">
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="119">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="94">
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="119">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="95"/>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="94">
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="119">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="94">
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="119">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="94">
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="121"/>
+      <c r="BB6" s="119">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="94">
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="120"/>
+      <c r="BF6" s="121"/>
+      <c r="BG6" s="119">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="94">
+      <c r="BH6" s="120"/>
+      <c r="BI6" s="120"/>
+      <c r="BJ6" s="120"/>
+      <c r="BK6" s="121"/>
+      <c r="BL6" s="119">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="96"/>
-      <c r="BQ6" s="94">
+      <c r="BM6" s="120"/>
+      <c r="BN6" s="120"/>
+      <c r="BO6" s="120"/>
+      <c r="BP6" s="121"/>
+      <c r="BQ6" s="119">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="95"/>
-      <c r="BS6" s="95"/>
-      <c r="BT6" s="95"/>
-      <c r="BU6" s="96"/>
-      <c r="BV6" s="94">
+      <c r="BR6" s="120"/>
+      <c r="BS6" s="120"/>
+      <c r="BT6" s="120"/>
+      <c r="BU6" s="121"/>
+      <c r="BV6" s="119">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="95"/>
-      <c r="BX6" s="95"/>
-      <c r="BY6" s="95"/>
-      <c r="BZ6" s="96"/>
-      <c r="CA6" s="94">
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="120"/>
+      <c r="BY6" s="120"/>
+      <c r="BZ6" s="121"/>
+      <c r="CA6" s="119">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="95"/>
-      <c r="CC6" s="95"/>
-      <c r="CD6" s="95"/>
-      <c r="CE6" s="96"/>
-      <c r="CF6" s="94">
+      <c r="CB6" s="120"/>
+      <c r="CC6" s="120"/>
+      <c r="CD6" s="120"/>
+      <c r="CE6" s="121"/>
+      <c r="CF6" s="119">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="95"/>
-      <c r="CH6" s="95"/>
-      <c r="CI6" s="95"/>
-      <c r="CJ6" s="96"/>
-      <c r="CK6" s="94">
+      <c r="CG6" s="120"/>
+      <c r="CH6" s="120"/>
+      <c r="CI6" s="120"/>
+      <c r="CJ6" s="121"/>
+      <c r="CK6" s="119">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="95"/>
-      <c r="CM6" s="95"/>
-      <c r="CN6" s="95"/>
-      <c r="CO6" s="96"/>
-      <c r="CP6" s="94">
+      <c r="CL6" s="120"/>
+      <c r="CM6" s="120"/>
+      <c r="CN6" s="120"/>
+      <c r="CO6" s="121"/>
+      <c r="CP6" s="119">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="95"/>
-      <c r="CR6" s="95"/>
-      <c r="CS6" s="95"/>
-      <c r="CT6" s="96"/>
-      <c r="CU6" s="94">
+      <c r="CQ6" s="120"/>
+      <c r="CR6" s="120"/>
+      <c r="CS6" s="120"/>
+      <c r="CT6" s="121"/>
+      <c r="CU6" s="119">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="95"/>
-      <c r="CW6" s="95"/>
-      <c r="CX6" s="95"/>
-      <c r="CY6" s="96"/>
-      <c r="CZ6" s="94">
+      <c r="CV6" s="120"/>
+      <c r="CW6" s="120"/>
+      <c r="CX6" s="120"/>
+      <c r="CY6" s="121"/>
+      <c r="CZ6" s="119">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="95"/>
-      <c r="DB6" s="95"/>
-      <c r="DC6" s="95"/>
-      <c r="DD6" s="96"/>
-      <c r="DE6" s="94">
+      <c r="DA6" s="120"/>
+      <c r="DB6" s="120"/>
+      <c r="DC6" s="120"/>
+      <c r="DD6" s="121"/>
+      <c r="DE6" s="119">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="95"/>
-      <c r="DG6" s="95"/>
-      <c r="DH6" s="95"/>
-      <c r="DI6" s="96"/>
+      <c r="DF6" s="120"/>
+      <c r="DG6" s="120"/>
+      <c r="DH6" s="120"/>
+      <c r="DI6" s="121"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -9557,13 +9885,13 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="123" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -9783,9 +10111,9 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="99"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="100"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="75" t="s">
         <v>156</v>
       </c>
@@ -10003,9 +10331,9 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="99"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="98" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="123" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="75" t="s">
@@ -10225,9 +10553,9 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="99"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="100"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="20" t="s">
         <v>1</v>
       </c>
@@ -10443,11 +10771,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="104" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -10667,9 +10995,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="99"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="119"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="34" t="s">
         <v>6</v>
       </c>
@@ -10887,9 +11215,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="119"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="34" t="s">
         <v>119</v>
       </c>
@@ -11083,8 +11411,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -11229,8 +11557,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -11377,8 +11705,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="100"/>
-      <c r="C18" s="103"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -11583,7 +11911,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="96" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -11757,11 +12085,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="112"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="99" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -11929,9 +12257,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="112"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="115"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -12059,9 +12387,9 @@
       <c r="DI21" s="37"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="112"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="114" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="99" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -12231,9 +12559,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="112"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="115"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="76" t="s">
         <v>157</v>
       </c>
@@ -12397,11 +12725,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="112"/>
-      <c r="C24" s="120" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="99" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="72" t="s">
@@ -12557,9 +12885,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="112"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="115"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="72" t="s">
         <v>131</v>
       </c>
@@ -12723,7 +13051,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="112"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="40" t="s">
         <v>132</v>
       </c>
@@ -12883,7 +13211,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="112"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="40"/>
       <c r="D27" s="41" t="s">
         <v>162</v>
@@ -13003,7 +13331,7 @@
       <c r="DI27" s="78"/>
     </row>
     <row r="28" spans="2:113" ht="26.4">
-      <c r="B28" s="113"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41" t="s">
         <v>163</v>
@@ -13135,7 +13463,7 @@
       <c r="DI28" s="78"/>
     </row>
     <row r="29" spans="2:113" ht="66">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="101" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="49" t="s">
@@ -13339,8 +13667,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4">
-      <c r="B30" s="116"/>
-      <c r="C30" s="108" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="93" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -13515,8 +13843,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6">
-      <c r="B31" s="116"/>
-      <c r="C31" s="109"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -13711,8 +14039,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113">
-      <c r="B32" s="116"/>
-      <c r="C32" s="109"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="60" t="s">
         <v>183</v>
       </c>
@@ -13845,8 +14173,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113">
-      <c r="B33" s="116"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="82" t="s">
         <v>161</v>
       </c>
@@ -14003,8 +14331,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113">
-      <c r="B34" s="116"/>
-      <c r="C34" s="117" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="102" t="s">
         <v>141</v>
       </c>
       <c r="D34" s="50" t="s">
@@ -14215,8 +14543,8 @@
       <c r="DI34" s="59"/>
     </row>
     <row r="35" spans="2:113">
-      <c r="B35" s="116"/>
-      <c r="C35" s="117"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="50" t="s">
         <v>144</v>
       </c>
@@ -14419,8 +14747,8 @@
       <c r="DI35" s="59"/>
     </row>
     <row r="36" spans="2:113" ht="26.4">
-      <c r="B36" s="116"/>
-      <c r="C36" s="117"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="50" t="s">
         <v>146</v>
       </c>
@@ -14650,22 +14978,74 @@
   </sheetData>
   <autoFilter ref="B7:AB36"/>
   <mergeCells count="108">
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="BV2:BZ2"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="BV5:BZ5"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CZ2:DD2"/>
+    <mergeCell ref="CZ3:DD3"/>
+    <mergeCell ref="CZ5:DD5"/>
+    <mergeCell ref="CZ6:DD6"/>
+    <mergeCell ref="CA2:CE2"/>
+    <mergeCell ref="CA3:CE3"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF2:CJ2"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="DE2:DI2"/>
+    <mergeCell ref="DE3:DI3"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CP3:CT3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="CU3:CY3"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL2:BP2"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BL5:BP5"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BB2:BF2"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B9:B18"/>
@@ -14690,74 +15070,22 @@
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="BB2:BF2"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL2:BP2"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BL5:BP5"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="BQ2:BU2"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="DE2:DI2"/>
-    <mergeCell ref="DE3:DI3"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CP3:CT3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="CU2:CY2"/>
-    <mergeCell ref="CU3:CY3"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="BV2:BZ2"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="BV5:BZ5"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CZ2:DD2"/>
-    <mergeCell ref="CZ3:DD3"/>
-    <mergeCell ref="CZ5:DD5"/>
-    <mergeCell ref="CZ6:DD6"/>
-    <mergeCell ref="CA2:CE2"/>
-    <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF2:CJ2"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="424" priority="159"/>
@@ -15500,10 +15828,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="107"/>
+      <c r="C2" s="122"/>
       <c r="E2" s="21" t="s">
         <v>166</v>
       </c>
@@ -15853,329 +16181,329 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="91" t="s">
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="91" t="s">
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="91" t="s">
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="91" t="s">
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="93"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="91" t="s">
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="108"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="108"/>
+      <c r="BH5" s="109"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="109"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="BM5" s="92"/>
-      <c r="BN5" s="92"/>
-      <c r="BO5" s="92"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="91" t="s">
+      <c r="BM5" s="109"/>
+      <c r="BN5" s="109"/>
+      <c r="BO5" s="109"/>
+      <c r="BP5" s="110"/>
+      <c r="BQ5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="92"/>
-      <c r="BT5" s="92"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="91" t="s">
+      <c r="BR5" s="109"/>
+      <c r="BS5" s="109"/>
+      <c r="BT5" s="109"/>
+      <c r="BU5" s="110"/>
+      <c r="BV5" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="92"/>
-      <c r="BX5" s="92"/>
-      <c r="BY5" s="92"/>
-      <c r="BZ5" s="93"/>
-      <c r="CA5" s="91"/>
-      <c r="CB5" s="92"/>
-      <c r="CC5" s="92"/>
-      <c r="CD5" s="92"/>
-      <c r="CE5" s="93"/>
-      <c r="CF5" s="91"/>
-      <c r="CG5" s="92"/>
-      <c r="CH5" s="92"/>
-      <c r="CI5" s="92"/>
-      <c r="CJ5" s="93"/>
-      <c r="CK5" s="91"/>
-      <c r="CL5" s="92"/>
-      <c r="CM5" s="92"/>
-      <c r="CN5" s="92"/>
-      <c r="CO5" s="93"/>
-      <c r="CP5" s="91"/>
-      <c r="CQ5" s="92"/>
-      <c r="CR5" s="92"/>
-      <c r="CS5" s="92"/>
-      <c r="CT5" s="93"/>
-      <c r="CU5" s="91"/>
-      <c r="CV5" s="92"/>
-      <c r="CW5" s="92"/>
-      <c r="CX5" s="92"/>
-      <c r="CY5" s="93"/>
-      <c r="CZ5" s="91"/>
-      <c r="DA5" s="92"/>
-      <c r="DB5" s="92"/>
-      <c r="DC5" s="92"/>
-      <c r="DD5" s="93"/>
-      <c r="DE5" s="91"/>
-      <c r="DF5" s="92"/>
-      <c r="DG5" s="92"/>
-      <c r="DH5" s="92"/>
-      <c r="DI5" s="93"/>
+      <c r="BW5" s="109"/>
+      <c r="BX5" s="109"/>
+      <c r="BY5" s="109"/>
+      <c r="BZ5" s="110"/>
+      <c r="CA5" s="108"/>
+      <c r="CB5" s="109"/>
+      <c r="CC5" s="109"/>
+      <c r="CD5" s="109"/>
+      <c r="CE5" s="110"/>
+      <c r="CF5" s="108"/>
+      <c r="CG5" s="109"/>
+      <c r="CH5" s="109"/>
+      <c r="CI5" s="109"/>
+      <c r="CJ5" s="110"/>
+      <c r="CK5" s="108"/>
+      <c r="CL5" s="109"/>
+      <c r="CM5" s="109"/>
+      <c r="CN5" s="109"/>
+      <c r="CO5" s="110"/>
+      <c r="CP5" s="108"/>
+      <c r="CQ5" s="109"/>
+      <c r="CR5" s="109"/>
+      <c r="CS5" s="109"/>
+      <c r="CT5" s="110"/>
+      <c r="CU5" s="108"/>
+      <c r="CV5" s="109"/>
+      <c r="CW5" s="109"/>
+      <c r="CX5" s="109"/>
+      <c r="CY5" s="110"/>
+      <c r="CZ5" s="108"/>
+      <c r="DA5" s="109"/>
+      <c r="DB5" s="109"/>
+      <c r="DC5" s="109"/>
+      <c r="DD5" s="110"/>
+      <c r="DE5" s="108"/>
+      <c r="DF5" s="109"/>
+      <c r="DG5" s="109"/>
+      <c r="DH5" s="109"/>
+      <c r="DI5" s="110"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="94">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="119">
         <v>1</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="94">
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="119">
         <v>2</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="94">
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="119">
         <v>3</v>
       </c>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="94">
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="119">
         <v>4</v>
       </c>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="94">
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="119">
         <v>5</v>
       </c>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="94">
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="119">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="94">
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="119">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="95"/>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="94">
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="119">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="94">
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="119">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="94">
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="121"/>
+      <c r="BB6" s="119">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="94">
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="120"/>
+      <c r="BF6" s="121"/>
+      <c r="BG6" s="119">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="94">
+      <c r="BH6" s="120"/>
+      <c r="BI6" s="120"/>
+      <c r="BJ6" s="120"/>
+      <c r="BK6" s="121"/>
+      <c r="BL6" s="119">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="96"/>
-      <c r="BQ6" s="94">
+      <c r="BM6" s="120"/>
+      <c r="BN6" s="120"/>
+      <c r="BO6" s="120"/>
+      <c r="BP6" s="121"/>
+      <c r="BQ6" s="119">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="95"/>
-      <c r="BS6" s="95"/>
-      <c r="BT6" s="95"/>
-      <c r="BU6" s="96"/>
-      <c r="BV6" s="94">
+      <c r="BR6" s="120"/>
+      <c r="BS6" s="120"/>
+      <c r="BT6" s="120"/>
+      <c r="BU6" s="121"/>
+      <c r="BV6" s="119">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="95"/>
-      <c r="BX6" s="95"/>
-      <c r="BY6" s="95"/>
-      <c r="BZ6" s="96"/>
-      <c r="CA6" s="94">
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="120"/>
+      <c r="BY6" s="120"/>
+      <c r="BZ6" s="121"/>
+      <c r="CA6" s="119">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="95"/>
-      <c r="CC6" s="95"/>
-      <c r="CD6" s="95"/>
-      <c r="CE6" s="96"/>
-      <c r="CF6" s="94">
+      <c r="CB6" s="120"/>
+      <c r="CC6" s="120"/>
+      <c r="CD6" s="120"/>
+      <c r="CE6" s="121"/>
+      <c r="CF6" s="119">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="95"/>
-      <c r="CH6" s="95"/>
-      <c r="CI6" s="95"/>
-      <c r="CJ6" s="96"/>
-      <c r="CK6" s="94">
+      <c r="CG6" s="120"/>
+      <c r="CH6" s="120"/>
+      <c r="CI6" s="120"/>
+      <c r="CJ6" s="121"/>
+      <c r="CK6" s="119">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="95"/>
-      <c r="CM6" s="95"/>
-      <c r="CN6" s="95"/>
-      <c r="CO6" s="96"/>
-      <c r="CP6" s="94">
+      <c r="CL6" s="120"/>
+      <c r="CM6" s="120"/>
+      <c r="CN6" s="120"/>
+      <c r="CO6" s="121"/>
+      <c r="CP6" s="119">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="95"/>
-      <c r="CR6" s="95"/>
-      <c r="CS6" s="95"/>
-      <c r="CT6" s="96"/>
-      <c r="CU6" s="94">
+      <c r="CQ6" s="120"/>
+      <c r="CR6" s="120"/>
+      <c r="CS6" s="120"/>
+      <c r="CT6" s="121"/>
+      <c r="CU6" s="119">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="95"/>
-      <c r="CW6" s="95"/>
-      <c r="CX6" s="95"/>
-      <c r="CY6" s="96"/>
-      <c r="CZ6" s="94">
+      <c r="CV6" s="120"/>
+      <c r="CW6" s="120"/>
+      <c r="CX6" s="120"/>
+      <c r="CY6" s="121"/>
+      <c r="CZ6" s="119">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="95"/>
-      <c r="DB6" s="95"/>
-      <c r="DC6" s="95"/>
-      <c r="DD6" s="96"/>
-      <c r="DE6" s="94">
+      <c r="DA6" s="120"/>
+      <c r="DB6" s="120"/>
+      <c r="DC6" s="120"/>
+      <c r="DD6" s="121"/>
+      <c r="DE6" s="119">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="95"/>
-      <c r="DG6" s="95"/>
-      <c r="DH6" s="95"/>
-      <c r="DI6" s="96"/>
+      <c r="DF6" s="120"/>
+      <c r="DG6" s="120"/>
+      <c r="DH6" s="120"/>
+      <c r="DI6" s="121"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -16737,10 +17065,10 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="103" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="123" t="s">
@@ -16889,8 +17217,8 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="99"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="124"/>
       <c r="E10" s="75" t="s">
         <v>154</v>
@@ -17029,8 +17357,8 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="99"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="123" t="s">
         <v>117</v>
       </c>
@@ -17179,8 +17507,8 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="99"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="124"/>
       <c r="E12" s="20" t="s">
         <v>1</v>
@@ -17363,11 +17691,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="104" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -17511,9 +17839,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="99"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="119"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="63" t="s">
         <v>6</v>
       </c>
@@ -17649,9 +17977,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="119"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="63" t="s">
         <v>119</v>
       </c>
@@ -17803,8 +18131,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -17947,8 +18275,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -18075,8 +18403,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="100"/>
-      <c r="C18" s="103"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -18227,7 +18555,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="96" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -18373,11 +18701,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="112"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="99" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -18525,9 +18853,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="112"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="115"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -18661,9 +18989,9 @@
       <c r="DI21" s="32"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="112"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="114" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="99" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -18811,9 +19139,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="112"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="115"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="77" t="s">
         <v>157</v>
       </c>
@@ -18955,11 +19283,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="112"/>
-      <c r="C24" s="120" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="99" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -19093,9 +19421,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="112"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="115"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="46" t="s">
         <v>131</v>
       </c>
@@ -19241,7 +19569,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="112"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="76" t="s">
@@ -19367,7 +19695,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="112"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="76" t="s">
@@ -19489,7 +19817,7 @@
       <c r="DI27" s="37"/>
     </row>
     <row r="28" spans="2:113">
-      <c r="B28" s="113"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="40" t="s">
         <v>132</v>
       </c>
@@ -19639,7 +19967,7 @@
       <c r="DI28" s="37"/>
     </row>
     <row r="29" spans="2:113" ht="66" hidden="1">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="101" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="62" t="s">
@@ -19763,8 +20091,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4" hidden="1">
-      <c r="B30" s="116"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -19885,8 +20213,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6" hidden="1">
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -20005,8 +20333,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113" hidden="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="117" t="s">
+      <c r="B32" s="101"/>
+      <c r="C32" s="102" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -20127,8 +20455,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113" hidden="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="50" t="s">
         <v>144</v>
       </c>
@@ -20247,8 +20575,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113" ht="26.4" hidden="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="50" t="s">
         <v>146</v>
       </c>
@@ -20369,18 +20697,78 @@
   </sheetData>
   <autoFilter ref="B7:AB34"/>
   <mergeCells count="108">
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="CZ5:DD5"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="CZ6:DD6"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="BL5:BP5"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BV5:BZ5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="CU3:CY3"/>
+    <mergeCell ref="CZ3:DD3"/>
+    <mergeCell ref="DE3:DI3"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
     <mergeCell ref="CK2:CO2"/>
     <mergeCell ref="CP2:CT2"/>
     <mergeCell ref="CA3:CE3"/>
@@ -20405,78 +20793,18 @@
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="BB2:BF2"/>
     <mergeCell ref="CP3:CT3"/>
-    <mergeCell ref="CU3:CY3"/>
-    <mergeCell ref="CZ3:DD3"/>
-    <mergeCell ref="DE3:DI3"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="CZ5:DD5"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="CZ6:DD6"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="BL5:BP5"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BV5:BZ5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="276" priority="106"/>
@@ -20974,10 +21302,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="107"/>
+      <c r="C2" s="122"/>
       <c r="E2" s="21" t="s">
         <v>103</v>
       </c>
@@ -21327,321 +21655,321 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="93"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="91" t="s">
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="108"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="108"/>
+      <c r="BH5" s="109"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="109"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="BM5" s="92"/>
-      <c r="BN5" s="92"/>
-      <c r="BO5" s="92"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="91" t="s">
+      <c r="BM5" s="109"/>
+      <c r="BN5" s="109"/>
+      <c r="BO5" s="109"/>
+      <c r="BP5" s="110"/>
+      <c r="BQ5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="92"/>
-      <c r="BT5" s="92"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="91" t="s">
+      <c r="BR5" s="109"/>
+      <c r="BS5" s="109"/>
+      <c r="BT5" s="109"/>
+      <c r="BU5" s="110"/>
+      <c r="BV5" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="92"/>
-      <c r="BX5" s="92"/>
-      <c r="BY5" s="92"/>
-      <c r="BZ5" s="93"/>
-      <c r="CA5" s="91"/>
-      <c r="CB5" s="92"/>
-      <c r="CC5" s="92"/>
-      <c r="CD5" s="92"/>
-      <c r="CE5" s="93"/>
-      <c r="CF5" s="91"/>
-      <c r="CG5" s="92"/>
-      <c r="CH5" s="92"/>
-      <c r="CI5" s="92"/>
-      <c r="CJ5" s="93"/>
-      <c r="CK5" s="91"/>
-      <c r="CL5" s="92"/>
-      <c r="CM5" s="92"/>
-      <c r="CN5" s="92"/>
-      <c r="CO5" s="93"/>
-      <c r="CP5" s="91"/>
-      <c r="CQ5" s="92"/>
-      <c r="CR5" s="92"/>
-      <c r="CS5" s="92"/>
-      <c r="CT5" s="93"/>
-      <c r="CU5" s="91"/>
-      <c r="CV5" s="92"/>
-      <c r="CW5" s="92"/>
-      <c r="CX5" s="92"/>
-      <c r="CY5" s="93"/>
-      <c r="CZ5" s="91"/>
-      <c r="DA5" s="92"/>
-      <c r="DB5" s="92"/>
-      <c r="DC5" s="92"/>
-      <c r="DD5" s="93"/>
-      <c r="DE5" s="91"/>
-      <c r="DF5" s="92"/>
-      <c r="DG5" s="92"/>
-      <c r="DH5" s="92"/>
-      <c r="DI5" s="93"/>
+      <c r="BW5" s="109"/>
+      <c r="BX5" s="109"/>
+      <c r="BY5" s="109"/>
+      <c r="BZ5" s="110"/>
+      <c r="CA5" s="108"/>
+      <c r="CB5" s="109"/>
+      <c r="CC5" s="109"/>
+      <c r="CD5" s="109"/>
+      <c r="CE5" s="110"/>
+      <c r="CF5" s="108"/>
+      <c r="CG5" s="109"/>
+      <c r="CH5" s="109"/>
+      <c r="CI5" s="109"/>
+      <c r="CJ5" s="110"/>
+      <c r="CK5" s="108"/>
+      <c r="CL5" s="109"/>
+      <c r="CM5" s="109"/>
+      <c r="CN5" s="109"/>
+      <c r="CO5" s="110"/>
+      <c r="CP5" s="108"/>
+      <c r="CQ5" s="109"/>
+      <c r="CR5" s="109"/>
+      <c r="CS5" s="109"/>
+      <c r="CT5" s="110"/>
+      <c r="CU5" s="108"/>
+      <c r="CV5" s="109"/>
+      <c r="CW5" s="109"/>
+      <c r="CX5" s="109"/>
+      <c r="CY5" s="110"/>
+      <c r="CZ5" s="108"/>
+      <c r="DA5" s="109"/>
+      <c r="DB5" s="109"/>
+      <c r="DC5" s="109"/>
+      <c r="DD5" s="110"/>
+      <c r="DE5" s="108"/>
+      <c r="DF5" s="109"/>
+      <c r="DG5" s="109"/>
+      <c r="DH5" s="109"/>
+      <c r="DI5" s="110"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="94">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="119">
         <v>1</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="94">
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="119">
         <v>2</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="94">
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="119">
         <v>3</v>
       </c>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="94">
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="119">
         <v>4</v>
       </c>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="94">
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="119">
         <v>5</v>
       </c>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="94">
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="119">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="94">
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="119">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="95"/>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="94">
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="119">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="94">
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="119">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="94">
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="121"/>
+      <c r="BB6" s="119">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="94">
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="120"/>
+      <c r="BF6" s="121"/>
+      <c r="BG6" s="119">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="94">
+      <c r="BH6" s="120"/>
+      <c r="BI6" s="120"/>
+      <c r="BJ6" s="120"/>
+      <c r="BK6" s="121"/>
+      <c r="BL6" s="119">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="96"/>
-      <c r="BQ6" s="94">
+      <c r="BM6" s="120"/>
+      <c r="BN6" s="120"/>
+      <c r="BO6" s="120"/>
+      <c r="BP6" s="121"/>
+      <c r="BQ6" s="119">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="95"/>
-      <c r="BS6" s="95"/>
-      <c r="BT6" s="95"/>
-      <c r="BU6" s="96"/>
-      <c r="BV6" s="94">
+      <c r="BR6" s="120"/>
+      <c r="BS6" s="120"/>
+      <c r="BT6" s="120"/>
+      <c r="BU6" s="121"/>
+      <c r="BV6" s="119">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="95"/>
-      <c r="BX6" s="95"/>
-      <c r="BY6" s="95"/>
-      <c r="BZ6" s="96"/>
-      <c r="CA6" s="94">
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="120"/>
+      <c r="BY6" s="120"/>
+      <c r="BZ6" s="121"/>
+      <c r="CA6" s="119">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="95"/>
-      <c r="CC6" s="95"/>
-      <c r="CD6" s="95"/>
-      <c r="CE6" s="96"/>
-      <c r="CF6" s="94">
+      <c r="CB6" s="120"/>
+      <c r="CC6" s="120"/>
+      <c r="CD6" s="120"/>
+      <c r="CE6" s="121"/>
+      <c r="CF6" s="119">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="95"/>
-      <c r="CH6" s="95"/>
-      <c r="CI6" s="95"/>
-      <c r="CJ6" s="96"/>
-      <c r="CK6" s="94">
+      <c r="CG6" s="120"/>
+      <c r="CH6" s="120"/>
+      <c r="CI6" s="120"/>
+      <c r="CJ6" s="121"/>
+      <c r="CK6" s="119">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="95"/>
-      <c r="CM6" s="95"/>
-      <c r="CN6" s="95"/>
-      <c r="CO6" s="96"/>
-      <c r="CP6" s="94">
+      <c r="CL6" s="120"/>
+      <c r="CM6" s="120"/>
+      <c r="CN6" s="120"/>
+      <c r="CO6" s="121"/>
+      <c r="CP6" s="119">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="95"/>
-      <c r="CR6" s="95"/>
-      <c r="CS6" s="95"/>
-      <c r="CT6" s="96"/>
-      <c r="CU6" s="94">
+      <c r="CQ6" s="120"/>
+      <c r="CR6" s="120"/>
+      <c r="CS6" s="120"/>
+      <c r="CT6" s="121"/>
+      <c r="CU6" s="119">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="95"/>
-      <c r="CW6" s="95"/>
-      <c r="CX6" s="95"/>
-      <c r="CY6" s="96"/>
-      <c r="CZ6" s="94">
+      <c r="CV6" s="120"/>
+      <c r="CW6" s="120"/>
+      <c r="CX6" s="120"/>
+      <c r="CY6" s="121"/>
+      <c r="CZ6" s="119">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="95"/>
-      <c r="DB6" s="95"/>
-      <c r="DC6" s="95"/>
-      <c r="DD6" s="96"/>
-      <c r="DE6" s="94">
+      <c r="DA6" s="120"/>
+      <c r="DB6" s="120"/>
+      <c r="DC6" s="120"/>
+      <c r="DD6" s="121"/>
+      <c r="DE6" s="119">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="95"/>
-      <c r="DG6" s="95"/>
-      <c r="DH6" s="95"/>
-      <c r="DI6" s="96"/>
+      <c r="DF6" s="120"/>
+      <c r="DG6" s="120"/>
+      <c r="DH6" s="120"/>
+      <c r="DI6" s="121"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -22201,13 +22529,13 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="104" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -22359,9 +22687,9 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="99"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="75" t="s">
         <v>154</v>
       </c>
@@ -22503,9 +22831,9 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="99"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="75" t="s">
         <v>155</v>
       </c>
@@ -22639,8 +22967,8 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="99"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="85" t="s">
         <v>117</v>
       </c>
@@ -22821,11 +23149,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="104" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -22975,9 +23303,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="99"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="119"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="85" t="s">
         <v>6</v>
       </c>
@@ -23117,9 +23445,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="119"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="85" t="s">
         <v>119</v>
       </c>
@@ -23257,8 +23585,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -23389,8 +23717,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -23517,8 +23845,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="100"/>
-      <c r="C18" s="103"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -23675,7 +24003,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="96" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -23813,11 +24141,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="112"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="99" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -23957,9 +24285,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="112"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="115"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -24085,9 +24413,9 @@
       <c r="DI21" s="32"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="112"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="114" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="99" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -24227,9 +24555,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="112"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="115"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="77" t="s">
         <v>157</v>
       </c>
@@ -24363,11 +24691,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="112"/>
-      <c r="C24" s="120" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="99" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -24497,9 +24825,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="112"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="115"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="46" t="s">
         <v>131</v>
       </c>
@@ -24637,7 +24965,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="112"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="86"/>
       <c r="D26" s="87"/>
       <c r="E26" s="76" t="s">
@@ -24759,7 +25087,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="112"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="86"/>
       <c r="D27" s="87"/>
       <c r="E27" s="76" t="s">
@@ -24881,7 +25209,7 @@
       <c r="DI27" s="37"/>
     </row>
     <row r="28" spans="2:113">
-      <c r="B28" s="113"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="40" t="s">
         <v>132</v>
       </c>
@@ -25025,7 +25353,7 @@
       <c r="DI28" s="37"/>
     </row>
     <row r="29" spans="2:113" ht="66" hidden="1">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="101" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -25149,8 +25477,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4" hidden="1">
-      <c r="B30" s="116"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -25271,8 +25599,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6" hidden="1">
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -25391,8 +25719,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113" hidden="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="117" t="s">
+      <c r="B32" s="101"/>
+      <c r="C32" s="102" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -25513,8 +25841,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113" hidden="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="50" t="s">
         <v>144</v>
       </c>
@@ -25633,8 +25961,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113" ht="26.4" hidden="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="50" t="s">
         <v>146</v>
       </c>
@@ -25755,15 +26083,80 @@
   </sheetData>
   <autoFilter ref="B7:AB34"/>
   <mergeCells count="107">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="BL5:BP5"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BV5:BZ5"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="CZ6:DD6"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="CZ5:DD5"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
     <mergeCell ref="CZ2:DD2"/>
     <mergeCell ref="DE2:DI2"/>
     <mergeCell ref="I3:M3"/>
@@ -25788,80 +26181,15 @@
     <mergeCell ref="CZ3:DD3"/>
     <mergeCell ref="DE3:DI3"/>
     <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="CZ5:DD5"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="BL5:BP5"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BV5:BZ5"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="CZ6:DD6"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CU2:CY2"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="177" priority="100"/>
@@ -26329,10 +26657,10 @@
       <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:113" ht="15.6">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="107"/>
+      <c r="C2" s="122"/>
       <c r="E2" s="21" t="s">
         <v>103</v>
       </c>
@@ -26682,321 +27010,321 @@
       </c>
     </row>
     <row r="5" spans="2:113" ht="25.5" customHeight="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="92"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="92"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="92"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="93"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="91" t="s">
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="108"/>
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="110"/>
+      <c r="BG5" s="108"/>
+      <c r="BH5" s="109"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="109"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="BM5" s="92"/>
-      <c r="BN5" s="92"/>
-      <c r="BO5" s="92"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="91" t="s">
+      <c r="BM5" s="109"/>
+      <c r="BN5" s="109"/>
+      <c r="BO5" s="109"/>
+      <c r="BP5" s="110"/>
+      <c r="BQ5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="92"/>
-      <c r="BT5" s="92"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="91" t="s">
+      <c r="BR5" s="109"/>
+      <c r="BS5" s="109"/>
+      <c r="BT5" s="109"/>
+      <c r="BU5" s="110"/>
+      <c r="BV5" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="BW5" s="92"/>
-      <c r="BX5" s="92"/>
-      <c r="BY5" s="92"/>
-      <c r="BZ5" s="93"/>
-      <c r="CA5" s="91"/>
-      <c r="CB5" s="92"/>
-      <c r="CC5" s="92"/>
-      <c r="CD5" s="92"/>
-      <c r="CE5" s="93"/>
-      <c r="CF5" s="91"/>
-      <c r="CG5" s="92"/>
-      <c r="CH5" s="92"/>
-      <c r="CI5" s="92"/>
-      <c r="CJ5" s="93"/>
-      <c r="CK5" s="91"/>
-      <c r="CL5" s="92"/>
-      <c r="CM5" s="92"/>
-      <c r="CN5" s="92"/>
-      <c r="CO5" s="93"/>
-      <c r="CP5" s="91"/>
-      <c r="CQ5" s="92"/>
-      <c r="CR5" s="92"/>
-      <c r="CS5" s="92"/>
-      <c r="CT5" s="93"/>
-      <c r="CU5" s="91"/>
-      <c r="CV5" s="92"/>
-      <c r="CW5" s="92"/>
-      <c r="CX5" s="92"/>
-      <c r="CY5" s="93"/>
-      <c r="CZ5" s="91"/>
-      <c r="DA5" s="92"/>
-      <c r="DB5" s="92"/>
-      <c r="DC5" s="92"/>
-      <c r="DD5" s="93"/>
-      <c r="DE5" s="91"/>
-      <c r="DF5" s="92"/>
-      <c r="DG5" s="92"/>
-      <c r="DH5" s="92"/>
-      <c r="DI5" s="93"/>
+      <c r="BW5" s="109"/>
+      <c r="BX5" s="109"/>
+      <c r="BY5" s="109"/>
+      <c r="BZ5" s="110"/>
+      <c r="CA5" s="108"/>
+      <c r="CB5" s="109"/>
+      <c r="CC5" s="109"/>
+      <c r="CD5" s="109"/>
+      <c r="CE5" s="110"/>
+      <c r="CF5" s="108"/>
+      <c r="CG5" s="109"/>
+      <c r="CH5" s="109"/>
+      <c r="CI5" s="109"/>
+      <c r="CJ5" s="110"/>
+      <c r="CK5" s="108"/>
+      <c r="CL5" s="109"/>
+      <c r="CM5" s="109"/>
+      <c r="CN5" s="109"/>
+      <c r="CO5" s="110"/>
+      <c r="CP5" s="108"/>
+      <c r="CQ5" s="109"/>
+      <c r="CR5" s="109"/>
+      <c r="CS5" s="109"/>
+      <c r="CT5" s="110"/>
+      <c r="CU5" s="108"/>
+      <c r="CV5" s="109"/>
+      <c r="CW5" s="109"/>
+      <c r="CX5" s="109"/>
+      <c r="CY5" s="110"/>
+      <c r="CZ5" s="108"/>
+      <c r="DA5" s="109"/>
+      <c r="DB5" s="109"/>
+      <c r="DC5" s="109"/>
+      <c r="DD5" s="110"/>
+      <c r="DE5" s="108"/>
+      <c r="DF5" s="109"/>
+      <c r="DG5" s="109"/>
+      <c r="DH5" s="109"/>
+      <c r="DI5" s="110"/>
     </row>
     <row r="6" spans="2:113">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="94">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="119">
         <v>1</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="94">
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="119">
         <v>2</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="94">
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="119">
         <v>3</v>
       </c>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="94">
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="119">
         <v>4</v>
       </c>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="94">
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="119">
         <v>5</v>
       </c>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="94">
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="119">
         <f>AC6+1</f>
         <v>6</v>
       </c>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="94">
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="119">
         <f>AH6+1</f>
         <v>7</v>
       </c>
-      <c r="AN6" s="95"/>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="94">
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="119">
         <f>AM6+1</f>
         <v>8</v>
       </c>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="94">
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="119">
         <f>AR6+1</f>
         <v>9</v>
       </c>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="94">
+      <c r="AX6" s="120"/>
+      <c r="AY6" s="120"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="121"/>
+      <c r="BB6" s="119">
         <f>AW6+1</f>
         <v>10</v>
       </c>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="94">
+      <c r="BC6" s="120"/>
+      <c r="BD6" s="120"/>
+      <c r="BE6" s="120"/>
+      <c r="BF6" s="121"/>
+      <c r="BG6" s="119">
         <f>BB6+1</f>
         <v>11</v>
       </c>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="94">
+      <c r="BH6" s="120"/>
+      <c r="BI6" s="120"/>
+      <c r="BJ6" s="120"/>
+      <c r="BK6" s="121"/>
+      <c r="BL6" s="119">
         <f>BG6+1</f>
         <v>12</v>
       </c>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="96"/>
-      <c r="BQ6" s="94">
+      <c r="BM6" s="120"/>
+      <c r="BN6" s="120"/>
+      <c r="BO6" s="120"/>
+      <c r="BP6" s="121"/>
+      <c r="BQ6" s="119">
         <f>BL6+1</f>
         <v>13</v>
       </c>
-      <c r="BR6" s="95"/>
-      <c r="BS6" s="95"/>
-      <c r="BT6" s="95"/>
-      <c r="BU6" s="96"/>
-      <c r="BV6" s="94">
+      <c r="BR6" s="120"/>
+      <c r="BS6" s="120"/>
+      <c r="BT6" s="120"/>
+      <c r="BU6" s="121"/>
+      <c r="BV6" s="119">
         <f>BQ6+1</f>
         <v>14</v>
       </c>
-      <c r="BW6" s="95"/>
-      <c r="BX6" s="95"/>
-      <c r="BY6" s="95"/>
-      <c r="BZ6" s="96"/>
-      <c r="CA6" s="94">
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="120"/>
+      <c r="BY6" s="120"/>
+      <c r="BZ6" s="121"/>
+      <c r="CA6" s="119">
         <f>BV6+1</f>
         <v>15</v>
       </c>
-      <c r="CB6" s="95"/>
-      <c r="CC6" s="95"/>
-      <c r="CD6" s="95"/>
-      <c r="CE6" s="96"/>
-      <c r="CF6" s="94">
+      <c r="CB6" s="120"/>
+      <c r="CC6" s="120"/>
+      <c r="CD6" s="120"/>
+      <c r="CE6" s="121"/>
+      <c r="CF6" s="119">
         <f>CA6+1</f>
         <v>16</v>
       </c>
-      <c r="CG6" s="95"/>
-      <c r="CH6" s="95"/>
-      <c r="CI6" s="95"/>
-      <c r="CJ6" s="96"/>
-      <c r="CK6" s="94">
+      <c r="CG6" s="120"/>
+      <c r="CH6" s="120"/>
+      <c r="CI6" s="120"/>
+      <c r="CJ6" s="121"/>
+      <c r="CK6" s="119">
         <f>CF6+1</f>
         <v>17</v>
       </c>
-      <c r="CL6" s="95"/>
-      <c r="CM6" s="95"/>
-      <c r="CN6" s="95"/>
-      <c r="CO6" s="96"/>
-      <c r="CP6" s="94">
+      <c r="CL6" s="120"/>
+      <c r="CM6" s="120"/>
+      <c r="CN6" s="120"/>
+      <c r="CO6" s="121"/>
+      <c r="CP6" s="119">
         <f>CK6+1</f>
         <v>18</v>
       </c>
-      <c r="CQ6" s="95"/>
-      <c r="CR6" s="95"/>
-      <c r="CS6" s="95"/>
-      <c r="CT6" s="96"/>
-      <c r="CU6" s="94">
+      <c r="CQ6" s="120"/>
+      <c r="CR6" s="120"/>
+      <c r="CS6" s="120"/>
+      <c r="CT6" s="121"/>
+      <c r="CU6" s="119">
         <f>CP6+1</f>
         <v>19</v>
       </c>
-      <c r="CV6" s="95"/>
-      <c r="CW6" s="95"/>
-      <c r="CX6" s="95"/>
-      <c r="CY6" s="96"/>
-      <c r="CZ6" s="94">
+      <c r="CV6" s="120"/>
+      <c r="CW6" s="120"/>
+      <c r="CX6" s="120"/>
+      <c r="CY6" s="121"/>
+      <c r="CZ6" s="119">
         <f>CU6+1</f>
         <v>20</v>
       </c>
-      <c r="DA6" s="95"/>
-      <c r="DB6" s="95"/>
-      <c r="DC6" s="95"/>
-      <c r="DD6" s="96"/>
-      <c r="DE6" s="94">
+      <c r="DA6" s="120"/>
+      <c r="DB6" s="120"/>
+      <c r="DC6" s="120"/>
+      <c r="DD6" s="121"/>
+      <c r="DE6" s="119">
         <f>CZ6+1</f>
         <v>21</v>
       </c>
-      <c r="DF6" s="95"/>
-      <c r="DG6" s="95"/>
-      <c r="DH6" s="95"/>
-      <c r="DI6" s="96"/>
+      <c r="DF6" s="120"/>
+      <c r="DG6" s="120"/>
+      <c r="DH6" s="120"/>
+      <c r="DI6" s="121"/>
     </row>
     <row r="7" spans="2:113" ht="20.399999999999999">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="23">
         <v>2018</v>
       </c>
@@ -27554,13 +27882,13 @@
       <c r="DI8" s="18"/>
     </row>
     <row r="9" spans="2:113">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="104" t="s">
         <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -27718,9 +28046,9 @@
       <c r="DI9" s="32"/>
     </row>
     <row r="10" spans="2:113">
-      <c r="B10" s="99"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="75" t="s">
         <v>154</v>
       </c>
@@ -27868,9 +28196,9 @@
       <c r="DI10" s="32"/>
     </row>
     <row r="11" spans="2:113">
-      <c r="B11" s="99"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="75" t="s">
         <v>155</v>
       </c>
@@ -28010,8 +28338,8 @@
       <c r="DI11" s="32"/>
     </row>
     <row r="12" spans="2:113">
-      <c r="B12" s="99"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="85" t="s">
         <v>117</v>
       </c>
@@ -28198,11 +28526,11 @@
       <c r="DI12" s="32"/>
     </row>
     <row r="13" spans="2:113">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="104" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -28358,9 +28686,9 @@
       <c r="DI13" s="37"/>
     </row>
     <row r="14" spans="2:113">
-      <c r="B14" s="99"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="119"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="85" t="s">
         <v>6</v>
       </c>
@@ -28506,9 +28834,9 @@
       <c r="DI14" s="37"/>
     </row>
     <row r="15" spans="2:113">
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="119"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="85" t="s">
         <v>119</v>
       </c>
@@ -28640,8 +28968,8 @@
       <c r="DI15" s="37"/>
     </row>
     <row r="16" spans="2:113">
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="38" t="s">
         <v>120</v>
       </c>
@@ -28772,8 +29100,8 @@
       <c r="DI16" s="37"/>
     </row>
     <row r="17" spans="2:113">
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="38"/>
       <c r="E17" s="64" t="s">
         <v>153</v>
@@ -28900,8 +29228,8 @@
       <c r="DI17" s="37"/>
     </row>
     <row r="18" spans="2:113">
-      <c r="B18" s="100"/>
-      <c r="C18" s="103"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="38"/>
       <c r="E18" s="64" t="s">
         <v>7</v>
@@ -29064,7 +29392,7 @@
       <c r="DI18" s="37"/>
     </row>
     <row r="19" spans="2:113">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="96" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -29200,11 +29528,11 @@
       <c r="DI19" s="37"/>
     </row>
     <row r="20" spans="2:113">
-      <c r="B20" s="112"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="99" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -29338,9 +29666,9 @@
       <c r="DI20" s="32"/>
     </row>
     <row r="21" spans="2:113">
-      <c r="B21" s="112"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="115"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="76" t="s">
         <v>165</v>
       </c>
@@ -29460,9 +29788,9 @@
       <c r="DI21" s="32"/>
     </row>
     <row r="22" spans="2:113">
-      <c r="B22" s="112"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="114" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="99" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -29596,9 +29924,9 @@
       <c r="DI22" s="32"/>
     </row>
     <row r="23" spans="2:113">
-      <c r="B23" s="112"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="115"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="77" t="s">
         <v>157</v>
       </c>
@@ -29726,11 +30054,11 @@
       <c r="DI23" s="37"/>
     </row>
     <row r="24" spans="2:113">
-      <c r="B24" s="112"/>
-      <c r="C24" s="120" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="99" t="s">
         <v>129</v>
       </c>
       <c r="E24" s="46" t="s">
@@ -29860,9 +30188,9 @@
       <c r="DI24" s="37"/>
     </row>
     <row r="25" spans="2:113">
-      <c r="B25" s="112"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="115"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="46" t="s">
         <v>131</v>
       </c>
@@ -29994,7 +30322,7 @@
       <c r="DI25" s="37"/>
     </row>
     <row r="26" spans="2:113">
-      <c r="B26" s="112"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="86"/>
       <c r="D26" s="87"/>
       <c r="E26" s="76" t="s">
@@ -30116,7 +30444,7 @@
       <c r="DI26" s="37"/>
     </row>
     <row r="27" spans="2:113">
-      <c r="B27" s="112"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="86"/>
       <c r="D27" s="87"/>
       <c r="E27" s="76" t="s">
@@ -30238,7 +30566,7 @@
       <c r="DI27" s="37"/>
     </row>
     <row r="28" spans="2:113">
-      <c r="B28" s="113"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="40" t="s">
         <v>132</v>
       </c>
@@ -30376,7 +30704,7 @@
       <c r="DI28" s="37"/>
     </row>
     <row r="29" spans="2:113" ht="66" hidden="1">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="101" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -30500,8 +30828,8 @@
       <c r="DI29" s="52"/>
     </row>
     <row r="30" spans="2:113" ht="26.4" hidden="1">
-      <c r="B30" s="116"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="50" t="s">
@@ -30622,8 +30950,8 @@
       <c r="DI30" s="59"/>
     </row>
     <row r="31" spans="2:113" ht="39.6" hidden="1">
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="60" t="s">
         <v>140</v>
       </c>
@@ -30742,8 +31070,8 @@
       <c r="DI31" s="59"/>
     </row>
     <row r="32" spans="2:113" hidden="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="117" t="s">
+      <c r="B32" s="101"/>
+      <c r="C32" s="102" t="s">
         <v>141</v>
       </c>
       <c r="D32" s="50" t="s">
@@ -30864,8 +31192,8 @@
       <c r="DI32" s="59"/>
     </row>
     <row r="33" spans="2:113" hidden="1">
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="50" t="s">
         <v>144</v>
       </c>
@@ -30984,8 +31312,8 @@
       <c r="DI33" s="59"/>
     </row>
     <row r="34" spans="2:113" ht="26.4" hidden="1">
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="50" t="s">
         <v>146</v>
       </c>
@@ -31106,15 +31434,80 @@
   </sheetData>
   <autoFilter ref="B7:AB34"/>
   <mergeCells count="107">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="DE5:DI5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="BL5:BP5"/>
+    <mergeCell ref="BQ5:BU5"/>
+    <mergeCell ref="BV5:BZ5"/>
+    <mergeCell ref="CA5:CE5"/>
+    <mergeCell ref="CF5:CJ5"/>
+    <mergeCell ref="CK5:CO5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="CU6:CY6"/>
+    <mergeCell ref="CZ6:DD6"/>
+    <mergeCell ref="DE6:DI6"/>
+    <mergeCell ref="CU5:CY5"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="CZ5:DD5"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CP6:CT6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="BB6:BF6"/>
+    <mergeCell ref="BG6:BK6"/>
+    <mergeCell ref="BL6:BP6"/>
+    <mergeCell ref="BQ6:BU6"/>
+    <mergeCell ref="BV6:BZ6"/>
+    <mergeCell ref="CA6:CE6"/>
+    <mergeCell ref="CF6:CJ6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="BG5:BK5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
     <mergeCell ref="CZ2:DD2"/>
     <mergeCell ref="DE2:DI2"/>
     <mergeCell ref="I3:M3"/>
@@ -31139,80 +31532,15 @@
     <mergeCell ref="CZ3:DD3"/>
     <mergeCell ref="DE3:DI3"/>
     <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="CZ5:DD5"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CP6:CT6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BP6"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="BQ6:BU6"/>
-    <mergeCell ref="BV6:BZ6"/>
-    <mergeCell ref="CA6:CE6"/>
-    <mergeCell ref="CF6:CJ6"/>
-    <mergeCell ref="DE5:DI5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="BL5:BP5"/>
-    <mergeCell ref="BQ5:BU5"/>
-    <mergeCell ref="BV5:BZ5"/>
-    <mergeCell ref="CA5:CE5"/>
-    <mergeCell ref="CF5:CJ5"/>
-    <mergeCell ref="CK5:CO5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="CU6:CY6"/>
-    <mergeCell ref="CZ6:DD6"/>
-    <mergeCell ref="DE6:DI6"/>
-    <mergeCell ref="CU5:CY5"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CU2:CY2"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 N5 S5 X5">
     <cfRule type="duplicateValues" dxfId="84" priority="84"/>
@@ -31601,10 +31929,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I12"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31632,187 +31960,184 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>124</v>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A3" s="97"/>
+      <c r="B3" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+        <v>126</v>
+      </c>
+      <c r="E3" s="32">
+        <v>37.01</v>
+      </c>
+      <c r="F3" s="32">
+        <v>29.88</v>
+      </c>
+      <c r="G3" s="32">
+        <v>61.6</v>
+      </c>
+      <c r="H3" s="32">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A4" s="112"/>
-      <c r="B4" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>126</v>
+    <row r="4" spans="1:9">
+      <c r="A4" s="97"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="76" t="s">
+        <v>165</v>
       </c>
       <c r="E4" s="32">
-        <v>37.01</v>
-      </c>
-      <c r="F4" s="32">
-        <v>29.88</v>
+        <v>7.49</v>
+      </c>
+      <c r="F4" s="37">
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="G4" s="32">
-        <v>61.6</v>
+        <v>14.75</v>
       </c>
       <c r="H4" s="32">
-        <v>40.619999999999997</v>
+        <v>12.79</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="112"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="76" t="s">
-        <v>165</v>
+      <c r="A5" s="97"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E5" s="32">
-        <v>7.49</v>
-      </c>
-      <c r="F5" s="37">
-        <v>5.2699999999999997E-2</v>
+        <v>36.72</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="G5" s="32">
-        <v>14.75</v>
-      </c>
-      <c r="H5" s="32">
-        <v>12.79</v>
-      </c>
-      <c r="I5" s="32" t="s">
+        <v>62.11</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>116</v>
+      </c>
+      <c r="I5" s="32">
+        <v>6.81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="112"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>128</v>
+      <c r="A6" s="97"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="76" t="s">
+        <v>157</v>
       </c>
       <c r="E6" s="32">
-        <v>36.72</v>
-      </c>
-      <c r="F6" s="32" t="s">
+        <v>13.53</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>116</v>
       </c>
       <c r="G6" s="32">
-        <v>62.11</v>
-      </c>
-      <c r="H6" s="32" t="s">
+        <v>38.35</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>116</v>
       </c>
       <c r="I6" s="32">
-        <v>6.81</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="112"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="32">
-        <v>13.53</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="32">
-        <v>38.35</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="32">
-        <v>5.15</v>
-      </c>
+      <c r="A7" s="97"/>
+      <c r="B7" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="112"/>
-      <c r="B8" s="120" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="114" t="s">
-        <v>129</v>
-      </c>
+      <c r="A8" s="97"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+        <v>131</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="112"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="37">
-        <v>0.04</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="37">
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:9" ht="39.6">
+      <c r="A9" s="97"/>
+      <c r="B9" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="39.6">
-      <c r="A10" s="112"/>
-      <c r="B10" s="40" t="s">
-        <v>132</v>
-      </c>
+    <row r="10" spans="1:9">
+      <c r="A10" s="97"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+        <v>162</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="112"/>
+    <row r="11" spans="1:9" ht="26.4">
+      <c r="A11" s="98"/>
       <c r="B11" s="40"/>
       <c r="C11" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
@@ -31820,31 +32145,590 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="1:9" ht="26.4">
-      <c r="A12" s="113"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1">
+      <c r="A1" s="132" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="132" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="135"/>
+      <c r="H1" s="132" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="133"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
+      <c r="A3" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="127">
+        <v>44</v>
+      </c>
+      <c r="G3" s="127">
+        <v>45</v>
+      </c>
+      <c r="H3" s="128"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="137">
+        <v>47</v>
+      </c>
+      <c r="G4" s="137">
+        <v>50</v>
+      </c>
+      <c r="H4" s="139"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="140"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="127">
+        <v>75</v>
+      </c>
+      <c r="G6" s="127">
+        <v>80</v>
+      </c>
+      <c r="H6" s="128"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="127">
+        <v>48</v>
+      </c>
+      <c r="G7" s="127">
+        <v>48</v>
+      </c>
+      <c r="H7" s="128"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
+      <c r="A8" s="138"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="127">
+        <v>56</v>
+      </c>
+      <c r="G8" s="127">
+        <v>60</v>
+      </c>
+      <c r="H8" s="128"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.200000000000003" thickBot="1">
+      <c r="A9" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="128"/>
+    </row>
+    <row r="10" spans="1:8" ht="53.4" thickBot="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="128"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" thickBot="1">
+      <c r="A11" s="136"/>
+      <c r="B11" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="127">
+        <v>1.8</v>
+      </c>
+      <c r="G11" s="127">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="130" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.200000000000003" thickBot="1">
+      <c r="A12" s="136"/>
+      <c r="B12" s="137" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="127">
+        <v>10</v>
+      </c>
+      <c r="H12" s="130" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.200000000000003" thickBot="1">
+      <c r="A13" s="136"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="127">
+        <v>2</v>
+      </c>
+      <c r="G13" s="127">
+        <v>5</v>
+      </c>
+      <c r="H13" s="130" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="66.599999999999994" thickBot="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="127" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="127">
+        <v>98</v>
+      </c>
+      <c r="G14" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="128"/>
+    </row>
+    <row r="15" spans="1:8" ht="66.599999999999994" thickBot="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="127" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="129">
+        <v>0</v>
+      </c>
+      <c r="H15" s="130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="66.599999999999994" thickBot="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="127" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="128"/>
+      <c r="G16" s="127">
+        <v>90</v>
+      </c>
+      <c r="H16" s="130" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="66.599999999999994" thickBot="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="127">
+        <v>87</v>
+      </c>
+      <c r="G17" s="127">
+        <v>85</v>
+      </c>
+      <c r="H17" s="130" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" thickBot="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" s="127">
+        <v>38</v>
+      </c>
+      <c r="G18" s="127">
+        <v>35</v>
+      </c>
+      <c r="H18" s="128"/>
+    </row>
+    <row r="19" spans="1:8" ht="27" thickBot="1">
+      <c r="A19" s="131" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="127">
+        <v>3</v>
+      </c>
+      <c r="G19" s="127">
+        <v>10</v>
+      </c>
+      <c r="H19" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="53.4" thickBot="1">
+      <c r="A20" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="127">
+        <v>87</v>
+      </c>
+      <c r="G20" s="127" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="130" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="53.4" thickBot="1">
+      <c r="A21" s="136"/>
+      <c r="B21" s="127" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="127">
+        <v>26</v>
+      </c>
+      <c r="G21" s="127">
+        <v>25</v>
+      </c>
+      <c r="H21" s="130" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24.6" customHeight="1">
+      <c r="A22" s="136"/>
+      <c r="B22" s="137" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="137" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="137">
+        <v>8.4</v>
+      </c>
+      <c r="G22" s="137">
+        <v>8.5</v>
+      </c>
+      <c r="H22" s="141" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1">
+      <c r="A23" s="136"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="142"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.200000000000003" thickBot="1">
+      <c r="A24" s="136"/>
+      <c r="B24" s="127" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="127">
+        <v>23</v>
+      </c>
+      <c r="G24" s="127">
+        <v>30</v>
+      </c>
+      <c r="H24" s="128"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.200000000000003" thickBot="1">
+      <c r="A25" s="138"/>
+      <c r="B25" s="127" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="127">
+        <v>5</v>
+      </c>
+      <c r="G25" s="127">
+        <v>5</v>
+      </c>
+      <c r="H25" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>